--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9888418444679958</v>
+        <v>0.9888418444679947</v>
       </c>
       <c r="D2">
-        <v>1.009343633342619</v>
+        <v>1.009343633342618</v>
       </c>
       <c r="E2">
-        <v>0.9788702599390625</v>
+        <v>0.9788702599390622</v>
       </c>
       <c r="F2">
         <v>1.00299951169134</v>
@@ -439,16 +439,16 @@
         <v>1.041459889876097</v>
       </c>
       <c r="J2">
-        <v>1.011361494206602</v>
+        <v>1.011361494206601</v>
       </c>
       <c r="K2">
-        <v>1.020674313376088</v>
+        <v>1.020674313376087</v>
       </c>
       <c r="L2">
-        <v>0.9906320314241948</v>
+        <v>0.9906320314241945</v>
       </c>
       <c r="M2">
-        <v>1.014417216128663</v>
+        <v>1.014417216128662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972593041630134</v>
+        <v>0.9972593041630137</v>
       </c>
       <c r="D3">
-        <v>1.015651848701038</v>
+        <v>1.015651848701039</v>
       </c>
       <c r="E3">
         <v>0.9847313559492333</v>
@@ -483,7 +483,7 @@
         <v>1.026088302795681</v>
       </c>
       <c r="L3">
-        <v>0.9955634030828686</v>
+        <v>0.9955634030828688</v>
       </c>
       <c r="M3">
         <v>1.020774429398359</v>
@@ -503,10 +503,10 @@
         <v>1.019596803912441</v>
       </c>
       <c r="E4">
-        <v>0.9884179157295857</v>
+        <v>0.988417915729586</v>
       </c>
       <c r="F4">
-        <v>1.014828727304212</v>
+        <v>1.014828727304213</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.046139111095771</v>
       </c>
       <c r="J4">
-        <v>1.021859530585042</v>
+        <v>1.021859530585043</v>
       </c>
       <c r="K4">
-        <v>1.029464328996842</v>
+        <v>1.029464328996843</v>
       </c>
       <c r="L4">
-        <v>0.9986581659379077</v>
+        <v>0.9986581659379079</v>
       </c>
       <c r="M4">
         <v>1.024751417285334</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004689986211636</v>
+        <v>1.004689986211637</v>
       </c>
       <c r="D5">
-        <v>1.021224414965508</v>
+        <v>1.021224414965509</v>
       </c>
       <c r="E5">
-        <v>0.9899438237013322</v>
+        <v>0.9899438237013319</v>
       </c>
       <c r="F5">
         <v>1.016711381014556</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046873687488429</v>
+        <v>1.04687368748843</v>
       </c>
       <c r="J5">
-        <v>1.023522389730807</v>
+        <v>1.023522389730808</v>
       </c>
       <c r="K5">
-        <v>1.030854902400359</v>
+        <v>1.03085490240036</v>
       </c>
       <c r="L5">
-        <v>0.9999374625093006</v>
+        <v>0.9999374625093005</v>
       </c>
       <c r="M5">
         <v>1.026392562093233</v>
@@ -576,10 +576,10 @@
         <v>1.005051955166609</v>
       </c>
       <c r="D6">
-        <v>1.021495941586231</v>
+        <v>1.021495941586232</v>
       </c>
       <c r="E6">
-        <v>0.9901986672562435</v>
+        <v>0.9901986672562437</v>
       </c>
       <c r="F6">
         <v>1.017025593073414</v>
@@ -591,7 +591,7 @@
         <v>1.046995997439886</v>
       </c>
       <c r="J6">
-        <v>1.023799697120233</v>
+        <v>1.023799697120234</v>
       </c>
       <c r="K6">
         <v>1.031086749890474</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002549224429182</v>
+        <v>1.002549224429181</v>
       </c>
       <c r="D7">
         <v>1.019618670936886</v>
       </c>
       <c r="E7">
-        <v>0.9884383971654273</v>
+        <v>0.9884383971654268</v>
       </c>
       <c r="F7">
-        <v>1.014854011543598</v>
+        <v>1.014854011543597</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046148996036498</v>
+        <v>1.046148996036497</v>
       </c>
       <c r="J7">
-        <v>1.021881877910962</v>
+        <v>1.021881877910961</v>
       </c>
       <c r="K7">
         <v>1.029483020530696</v>
       </c>
       <c r="L7">
-        <v>0.9986753437829755</v>
+        <v>0.9986753437829751</v>
       </c>
       <c r="M7">
-        <v>1.024773464897224</v>
+        <v>1.024773464897223</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9917268267148904</v>
+        <v>0.9917268267148902</v>
       </c>
       <c r="D8">
         <v>1.011505083392914</v>
       </c>
       <c r="E8">
-        <v>0.9808738969338391</v>
+        <v>0.9808738969338386</v>
       </c>
       <c r="F8">
         <v>1.005489020884702</v>
@@ -670,10 +670,10 @@
         <v>1.013577768666358</v>
       </c>
       <c r="K8">
-        <v>1.02253143399739</v>
+        <v>1.022531433997389</v>
       </c>
       <c r="L8">
-        <v>0.992319331302522</v>
+        <v>0.9923193313025215</v>
       </c>
       <c r="M8">
         <v>1.016595149723847</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971090566292625</v>
+        <v>0.9710905662926259</v>
       </c>
       <c r="D9">
-        <v>0.9960621836901554</v>
+        <v>0.996062183690156</v>
       </c>
       <c r="E9">
-        <v>0.9666601510091432</v>
+        <v>0.9666601510091436</v>
       </c>
       <c r="F9">
-        <v>0.9877463213620922</v>
+        <v>0.9877463213620928</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035284006202958</v>
       </c>
       <c r="J9">
-        <v>0.9977071832040759</v>
+        <v>0.9977071832040768</v>
       </c>
       <c r="K9">
-        <v>1.009219473944935</v>
+        <v>1.009219473944936</v>
       </c>
       <c r="L9">
-        <v>0.9803183418175566</v>
+        <v>0.9803183418175573</v>
       </c>
       <c r="M9">
-        <v>1.00104138459049</v>
+        <v>1.001041384590491</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.9560502597603306</v>
       </c>
       <c r="D10">
-        <v>0.9848396520362108</v>
+        <v>0.9848396520362112</v>
       </c>
       <c r="E10">
-        <v>0.9564741159859249</v>
+        <v>0.9564741159859255</v>
       </c>
       <c r="F10">
-        <v>0.9749108900997275</v>
+        <v>0.9749108900997276</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029982443920338</v>
       </c>
       <c r="J10">
-        <v>0.9861230442192636</v>
+        <v>0.9861230442192637</v>
       </c>
       <c r="K10">
-        <v>0.999488134631597</v>
+        <v>0.9994881346315974</v>
       </c>
       <c r="L10">
-        <v>0.971676377004994</v>
+        <v>0.9716763770049944</v>
       </c>
       <c r="M10">
-        <v>0.9897484093880003</v>
+        <v>0.9897484093880009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,10 +769,10 @@
         <v>0.9797176253970377</v>
       </c>
       <c r="E11">
-        <v>0.9518640154461137</v>
+        <v>0.951864015446114</v>
       </c>
       <c r="F11">
-        <v>0.969067312615176</v>
+        <v>0.9690673126151764</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.027541188782586</v>
       </c>
       <c r="J11">
-        <v>0.9808221974853423</v>
+        <v>0.9808221974853425</v>
       </c>
       <c r="K11">
-        <v>0.9950324491373381</v>
+        <v>0.9950324491373382</v>
       </c>
       <c r="L11">
-        <v>0.9677546176692302</v>
+        <v>0.9677546176692305</v>
       </c>
       <c r="M11">
-        <v>0.984597140708141</v>
+        <v>0.9845971407081414</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9465535117627045</v>
+        <v>0.946553511762702</v>
       </c>
       <c r="D12">
-        <v>0.977771280380405</v>
+        <v>0.9777712803804026</v>
       </c>
       <c r="E12">
-        <v>0.9501185281047102</v>
+        <v>0.9501185281047092</v>
       </c>
       <c r="F12">
-        <v>0.9668490498167879</v>
+        <v>0.9668490498167862</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026610294002668</v>
+        <v>1.026610294002667</v>
       </c>
       <c r="J12">
-        <v>0.9788056609417484</v>
+        <v>0.978805660941746</v>
       </c>
       <c r="K12">
-        <v>0.9933371087470586</v>
+        <v>0.9933371087470564</v>
       </c>
       <c r="L12">
-        <v>0.9662681152420646</v>
+        <v>0.9662681152420639</v>
       </c>
       <c r="M12">
-        <v>0.9826401748793793</v>
+        <v>0.9826401748793777</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9471177770171786</v>
+        <v>0.9471177770171778</v>
       </c>
       <c r="D13">
-        <v>0.9781908373829254</v>
+        <v>0.978190837382925</v>
       </c>
       <c r="E13">
-        <v>0.950494493821567</v>
+        <v>0.9504944938215674</v>
       </c>
       <c r="F13">
-        <v>0.967327118119424</v>
+        <v>0.9673271181194236</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026811104500849</v>
       </c>
       <c r="J13">
-        <v>0.9792404525967093</v>
+        <v>0.9792404525967083</v>
       </c>
       <c r="K13">
-        <v>0.9937026592088501</v>
+        <v>0.9937026592088496</v>
       </c>
       <c r="L13">
-        <v>0.9665883723556979</v>
+        <v>0.9665883723556984</v>
       </c>
       <c r="M13">
-        <v>0.9830619981888686</v>
+        <v>0.9830619981888684</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9489555177962733</v>
+        <v>0.9489555177962721</v>
       </c>
       <c r="D14">
-        <v>0.9795576609900754</v>
+        <v>0.9795576609900744</v>
       </c>
       <c r="E14">
-        <v>0.951720427704777</v>
+        <v>0.9517204277047766</v>
       </c>
       <c r="F14">
-        <v>0.9688849536538179</v>
+        <v>0.968884953653817</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027464746586698</v>
+        <v>1.027464746586697</v>
       </c>
       <c r="J14">
-        <v>0.9806565106856036</v>
+        <v>0.9806565106856023</v>
       </c>
       <c r="K14">
-        <v>0.9948931590384807</v>
+        <v>0.9948931590384799</v>
       </c>
       <c r="L14">
-        <v>0.9676323681759879</v>
+        <v>0.9676323681759875</v>
       </c>
       <c r="M14">
-        <v>0.9844362931149343</v>
+        <v>0.9844362931149334</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9500794369785207</v>
+        <v>0.9500794369785195</v>
       </c>
       <c r="D15">
-        <v>0.9803938607531797</v>
+        <v>0.9803938607531785</v>
       </c>
       <c r="E15">
-        <v>0.9524712797670069</v>
+        <v>0.9524712797670061</v>
       </c>
       <c r="F15">
-        <v>0.9698383114844656</v>
+        <v>0.969838311484465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027864210430605</v>
+        <v>1.027864210430604</v>
       </c>
       <c r="J15">
-        <v>0.9815225317585311</v>
+        <v>0.9815225317585301</v>
       </c>
       <c r="K15">
-        <v>0.9956211959673017</v>
+        <v>0.9956211959673006</v>
       </c>
       <c r="L15">
-        <v>0.9682715709365026</v>
+        <v>0.9682715709365021</v>
       </c>
       <c r="M15">
-        <v>0.9852771299273982</v>
+        <v>0.9852771299273975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564985822753902</v>
+        <v>0.9564985822753905</v>
       </c>
       <c r="D16">
-        <v>0.9851736962763432</v>
+        <v>0.9851736962763434</v>
       </c>
       <c r="E16">
-        <v>0.95677561445106</v>
+        <v>0.9567756144510601</v>
       </c>
       <c r="F16">
-        <v>0.9752922986865813</v>
+        <v>0.9752922986865815</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030141211698457</v>
       </c>
       <c r="J16">
-        <v>0.9864684527368707</v>
+        <v>0.986468452736871</v>
       </c>
       <c r="K16">
-        <v>0.9997784232645462</v>
+        <v>0.9997784232645465</v>
       </c>
       <c r="L16">
-        <v>0.9719326363675506</v>
+        <v>0.9719326363675508</v>
       </c>
       <c r="M16">
-        <v>0.990084424970649</v>
+        <v>0.9900844249706493</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604226176529406</v>
+        <v>0.9604226176529413</v>
       </c>
       <c r="D17">
-        <v>0.9880987999964219</v>
+        <v>0.988098799996423</v>
       </c>
       <c r="E17">
-        <v>0.9594201417454628</v>
+        <v>0.9594201417454631</v>
       </c>
       <c r="F17">
-        <v>0.9786338002678275</v>
+        <v>0.9786338002678283</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03152905996861</v>
+        <v>1.031529059968611</v>
       </c>
       <c r="J17">
-        <v>0.9894915037950567</v>
+        <v>0.9894915037950576</v>
       </c>
       <c r="K17">
-        <v>1.002318768576146</v>
+        <v>1.002318768576147</v>
       </c>
       <c r="L17">
-        <v>0.9741791692286187</v>
+        <v>0.974179169228619</v>
       </c>
       <c r="M17">
-        <v>0.9930271229687665</v>
+        <v>0.9930271229687673</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9626765016475756</v>
+        <v>0.9626765016475766</v>
       </c>
       <c r="D18">
-        <v>0.9897799540990243</v>
+        <v>0.989779954099025</v>
       </c>
       <c r="E18">
-        <v>0.9609436365455778</v>
+        <v>0.9609436365455781</v>
       </c>
       <c r="F18">
-        <v>0.9805556296050369</v>
+        <v>0.9805556296050374</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032324683343362</v>
       </c>
       <c r="J18">
-        <v>0.9912276755867306</v>
+        <v>0.9912276755867316</v>
       </c>
       <c r="K18">
-        <v>1.003777461985866</v>
+        <v>1.003777461985867</v>
       </c>
       <c r="L18">
-        <v>0.9754724010028115</v>
+        <v>0.9754724010028121</v>
       </c>
       <c r="M18">
-        <v>0.9947186569769754</v>
+        <v>0.9947186569769759</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634392702745377</v>
+        <v>0.9634392702745397</v>
       </c>
       <c r="D19">
-        <v>0.9903490630883717</v>
+        <v>0.9903490630883741</v>
       </c>
       <c r="E19">
-        <v>0.9614599712961194</v>
+        <v>0.9614599712961204</v>
       </c>
       <c r="F19">
-        <v>0.9812064409308359</v>
+        <v>0.9812064409308376</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032593677080358</v>
+        <v>1.032593677080359</v>
       </c>
       <c r="J19">
-        <v>0.9918151975099621</v>
+        <v>0.9918151975099643</v>
       </c>
       <c r="K19">
-        <v>1.004271039465175</v>
+        <v>1.004271039465177</v>
       </c>
       <c r="L19">
-        <v>0.9759105314493819</v>
+        <v>0.9759105314493829</v>
       </c>
       <c r="M19">
-        <v>0.9952913238245392</v>
+        <v>0.9952913238245412</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9600052629242622</v>
+        <v>0.9600052629242612</v>
       </c>
       <c r="D20">
-        <v>0.9877875800849459</v>
+        <v>0.9877875800849449</v>
       </c>
       <c r="E20">
-        <v>0.959138396697351</v>
+        <v>0.9591383966973508</v>
       </c>
       <c r="F20">
-        <v>0.9782781354991121</v>
+        <v>0.9782781354991115</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031381608116985</v>
       </c>
       <c r="J20">
-        <v>0.989169996503355</v>
+        <v>0.9891699965033541</v>
       </c>
       <c r="K20">
-        <v>1.002048623964732</v>
+        <v>1.002048623964731</v>
       </c>
       <c r="L20">
         <v>0.9739399284272299</v>
       </c>
       <c r="M20">
-        <v>0.99271400288001</v>
+        <v>0.9927140028800093</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9484161065458235</v>
+        <v>0.948416106545822</v>
       </c>
       <c r="D21">
-        <v>0.9791564129381447</v>
+        <v>0.9791564129381433</v>
       </c>
       <c r="E21">
-        <v>0.951360361651831</v>
+        <v>0.9513603616518304</v>
       </c>
       <c r="F21">
-        <v>0.9684275687555782</v>
+        <v>0.968427568755577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027272950336063</v>
+        <v>1.027272950336062</v>
       </c>
       <c r="J21">
-        <v>0.9802408722054987</v>
+        <v>0.9802408722054972</v>
       </c>
       <c r="K21">
-        <v>0.9945437339681371</v>
+        <v>0.9945437339681358</v>
       </c>
       <c r="L21">
-        <v>0.967325784186943</v>
+        <v>0.9673257841869425</v>
       </c>
       <c r="M21">
-        <v>0.984032837805959</v>
+        <v>0.9840328378059575</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9407691115740862</v>
+        <v>0.9407691115740869</v>
       </c>
       <c r="D22">
-        <v>0.9734735612091022</v>
+        <v>0.973473561209103</v>
       </c>
       <c r="E22">
-        <v>0.9462766345045471</v>
+        <v>0.9462766345045474</v>
       </c>
       <c r="F22">
-        <v>0.9619552020163279</v>
+        <v>0.9619552020163283</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024548833898943</v>
       </c>
       <c r="J22">
-        <v>0.9743485983485927</v>
+        <v>0.9743485983485936</v>
       </c>
       <c r="K22">
-        <v>0.9895894861964976</v>
+        <v>0.9895894861964984</v>
       </c>
       <c r="L22">
-        <v>0.9629931626527169</v>
+        <v>0.9629931626527172</v>
       </c>
       <c r="M22">
-        <v>0.9783199817772051</v>
+        <v>0.9783199817772057</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448595396712157</v>
+        <v>0.9448595396712173</v>
       </c>
       <c r="D23">
-        <v>0.9765120682167746</v>
+        <v>0.9765120682167761</v>
       </c>
       <c r="E23">
-        <v>0.9489911160257907</v>
+        <v>0.9489911160257912</v>
       </c>
       <c r="F23">
-        <v>0.965414567649049</v>
+        <v>0.9654145676490502</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026007131074757</v>
+        <v>1.026007131074758</v>
       </c>
       <c r="J23">
-        <v>0.9775003820978351</v>
+        <v>0.9775003820978364</v>
       </c>
       <c r="K23">
-        <v>0.9922396578187801</v>
+        <v>0.9922396578187813</v>
       </c>
       <c r="L23">
-        <v>0.9653075119737698</v>
+        <v>0.9653075119737706</v>
       </c>
       <c r="M23">
-        <v>0.9813742376657864</v>
+        <v>0.9813742376657877</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9601939550606821</v>
+        <v>0.9601939550606812</v>
       </c>
       <c r="D24">
-        <v>0.9879282839332134</v>
+        <v>0.9879282839332125</v>
       </c>
       <c r="E24">
-        <v>0.9592657636836264</v>
+        <v>0.959265763683626</v>
       </c>
       <c r="F24">
-        <v>0.9784389288407479</v>
+        <v>0.9784389288407473</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.03144827800677</v>
       </c>
       <c r="J24">
-        <v>0.9893153552752287</v>
+        <v>0.9893153552752281</v>
       </c>
       <c r="K24">
-        <v>1.002170761617578</v>
+        <v>1.002170761617577</v>
       </c>
       <c r="L24">
-        <v>0.9740480837878044</v>
+        <v>0.9740480837878039</v>
       </c>
       <c r="M24">
-        <v>0.99285556497733</v>
+        <v>0.9928555649773294</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766328323311545</v>
+        <v>0.9766328323311565</v>
       </c>
       <c r="D25">
-        <v>1.0002051867716</v>
+        <v>1.000205186771601</v>
       </c>
       <c r="E25">
-        <v>0.9704505504711548</v>
+        <v>0.9704505504711554</v>
       </c>
       <c r="F25">
-        <v>0.992496633246339</v>
+        <v>0.9924966332463403</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037222907969461</v>
       </c>
       <c r="J25">
-        <v>1.001973022473027</v>
+        <v>1.001973022473029</v>
       </c>
       <c r="K25">
-        <v>1.012800318314431</v>
+        <v>1.012800318314433</v>
       </c>
       <c r="L25">
-        <v>0.9835255848573993</v>
+        <v>0.9835255848573999</v>
       </c>
       <c r="M25">
-        <v>1.005212556881135</v>
+        <v>1.005212556881136</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9888418444679947</v>
+        <v>0.9888418444679958</v>
       </c>
       <c r="D2">
-        <v>1.009343633342618</v>
+        <v>1.009343633342619</v>
       </c>
       <c r="E2">
-        <v>0.9788702599390622</v>
+        <v>0.9788702599390625</v>
       </c>
       <c r="F2">
         <v>1.00299951169134</v>
@@ -439,16 +439,16 @@
         <v>1.041459889876097</v>
       </c>
       <c r="J2">
-        <v>1.011361494206601</v>
+        <v>1.011361494206602</v>
       </c>
       <c r="K2">
-        <v>1.020674313376087</v>
+        <v>1.020674313376088</v>
       </c>
       <c r="L2">
-        <v>0.9906320314241945</v>
+        <v>0.9906320314241948</v>
       </c>
       <c r="M2">
-        <v>1.014417216128662</v>
+        <v>1.014417216128663</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972593041630137</v>
+        <v>0.9972593041630134</v>
       </c>
       <c r="D3">
-        <v>1.015651848701039</v>
+        <v>1.015651848701038</v>
       </c>
       <c r="E3">
         <v>0.9847313559492333</v>
@@ -483,7 +483,7 @@
         <v>1.026088302795681</v>
       </c>
       <c r="L3">
-        <v>0.9955634030828688</v>
+        <v>0.9955634030828686</v>
       </c>
       <c r="M3">
         <v>1.020774429398359</v>
@@ -503,10 +503,10 @@
         <v>1.019596803912441</v>
       </c>
       <c r="E4">
-        <v>0.988417915729586</v>
+        <v>0.9884179157295857</v>
       </c>
       <c r="F4">
-        <v>1.014828727304213</v>
+        <v>1.014828727304212</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.046139111095771</v>
       </c>
       <c r="J4">
-        <v>1.021859530585043</v>
+        <v>1.021859530585042</v>
       </c>
       <c r="K4">
-        <v>1.029464328996843</v>
+        <v>1.029464328996842</v>
       </c>
       <c r="L4">
-        <v>0.9986581659379079</v>
+        <v>0.9986581659379077</v>
       </c>
       <c r="M4">
         <v>1.024751417285334</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004689986211637</v>
+        <v>1.004689986211636</v>
       </c>
       <c r="D5">
-        <v>1.021224414965509</v>
+        <v>1.021224414965508</v>
       </c>
       <c r="E5">
-        <v>0.9899438237013319</v>
+        <v>0.9899438237013322</v>
       </c>
       <c r="F5">
         <v>1.016711381014556</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04687368748843</v>
+        <v>1.046873687488429</v>
       </c>
       <c r="J5">
-        <v>1.023522389730808</v>
+        <v>1.023522389730807</v>
       </c>
       <c r="K5">
-        <v>1.03085490240036</v>
+        <v>1.030854902400359</v>
       </c>
       <c r="L5">
-        <v>0.9999374625093005</v>
+        <v>0.9999374625093006</v>
       </c>
       <c r="M5">
         <v>1.026392562093233</v>
@@ -576,10 +576,10 @@
         <v>1.005051955166609</v>
       </c>
       <c r="D6">
-        <v>1.021495941586232</v>
+        <v>1.021495941586231</v>
       </c>
       <c r="E6">
-        <v>0.9901986672562437</v>
+        <v>0.9901986672562435</v>
       </c>
       <c r="F6">
         <v>1.017025593073414</v>
@@ -591,7 +591,7 @@
         <v>1.046995997439886</v>
       </c>
       <c r="J6">
-        <v>1.023799697120234</v>
+        <v>1.023799697120233</v>
       </c>
       <c r="K6">
         <v>1.031086749890474</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002549224429181</v>
+        <v>1.002549224429182</v>
       </c>
       <c r="D7">
         <v>1.019618670936886</v>
       </c>
       <c r="E7">
-        <v>0.9884383971654268</v>
+        <v>0.9884383971654273</v>
       </c>
       <c r="F7">
-        <v>1.014854011543597</v>
+        <v>1.014854011543598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046148996036497</v>
+        <v>1.046148996036498</v>
       </c>
       <c r="J7">
-        <v>1.021881877910961</v>
+        <v>1.021881877910962</v>
       </c>
       <c r="K7">
         <v>1.029483020530696</v>
       </c>
       <c r="L7">
-        <v>0.9986753437829751</v>
+        <v>0.9986753437829755</v>
       </c>
       <c r="M7">
-        <v>1.024773464897223</v>
+        <v>1.024773464897224</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9917268267148902</v>
+        <v>0.9917268267148904</v>
       </c>
       <c r="D8">
         <v>1.011505083392914</v>
       </c>
       <c r="E8">
-        <v>0.9808738969338386</v>
+        <v>0.9808738969338391</v>
       </c>
       <c r="F8">
         <v>1.005489020884702</v>
@@ -670,10 +670,10 @@
         <v>1.013577768666358</v>
       </c>
       <c r="K8">
-        <v>1.022531433997389</v>
+        <v>1.02253143399739</v>
       </c>
       <c r="L8">
-        <v>0.9923193313025215</v>
+        <v>0.992319331302522</v>
       </c>
       <c r="M8">
         <v>1.016595149723847</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9710905662926259</v>
+        <v>0.971090566292625</v>
       </c>
       <c r="D9">
-        <v>0.996062183690156</v>
+        <v>0.9960621836901554</v>
       </c>
       <c r="E9">
-        <v>0.9666601510091436</v>
+        <v>0.9666601510091432</v>
       </c>
       <c r="F9">
-        <v>0.9877463213620928</v>
+        <v>0.9877463213620922</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.035284006202958</v>
       </c>
       <c r="J9">
-        <v>0.9977071832040768</v>
+        <v>0.9977071832040759</v>
       </c>
       <c r="K9">
-        <v>1.009219473944936</v>
+        <v>1.009219473944935</v>
       </c>
       <c r="L9">
-        <v>0.9803183418175573</v>
+        <v>0.9803183418175566</v>
       </c>
       <c r="M9">
-        <v>1.001041384590491</v>
+        <v>1.00104138459049</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.9560502597603306</v>
       </c>
       <c r="D10">
-        <v>0.9848396520362112</v>
+        <v>0.9848396520362108</v>
       </c>
       <c r="E10">
-        <v>0.9564741159859255</v>
+        <v>0.9564741159859249</v>
       </c>
       <c r="F10">
-        <v>0.9749108900997276</v>
+        <v>0.9749108900997275</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029982443920338</v>
       </c>
       <c r="J10">
-        <v>0.9861230442192637</v>
+        <v>0.9861230442192636</v>
       </c>
       <c r="K10">
-        <v>0.9994881346315974</v>
+        <v>0.999488134631597</v>
       </c>
       <c r="L10">
-        <v>0.9716763770049944</v>
+        <v>0.971676377004994</v>
       </c>
       <c r="M10">
-        <v>0.9897484093880009</v>
+        <v>0.9897484093880003</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,10 +769,10 @@
         <v>0.9797176253970377</v>
       </c>
       <c r="E11">
-        <v>0.951864015446114</v>
+        <v>0.9518640154461137</v>
       </c>
       <c r="F11">
-        <v>0.9690673126151764</v>
+        <v>0.969067312615176</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.027541188782586</v>
       </c>
       <c r="J11">
-        <v>0.9808221974853425</v>
+        <v>0.9808221974853423</v>
       </c>
       <c r="K11">
-        <v>0.9950324491373382</v>
+        <v>0.9950324491373381</v>
       </c>
       <c r="L11">
-        <v>0.9677546176692305</v>
+        <v>0.9677546176692302</v>
       </c>
       <c r="M11">
-        <v>0.9845971407081414</v>
+        <v>0.984597140708141</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.946553511762702</v>
+        <v>0.9465535117627045</v>
       </c>
       <c r="D12">
-        <v>0.9777712803804026</v>
+        <v>0.977771280380405</v>
       </c>
       <c r="E12">
-        <v>0.9501185281047092</v>
+        <v>0.9501185281047102</v>
       </c>
       <c r="F12">
-        <v>0.9668490498167862</v>
+        <v>0.9668490498167879</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026610294002667</v>
+        <v>1.026610294002668</v>
       </c>
       <c r="J12">
-        <v>0.978805660941746</v>
+        <v>0.9788056609417484</v>
       </c>
       <c r="K12">
-        <v>0.9933371087470564</v>
+        <v>0.9933371087470586</v>
       </c>
       <c r="L12">
-        <v>0.9662681152420639</v>
+        <v>0.9662681152420646</v>
       </c>
       <c r="M12">
-        <v>0.9826401748793777</v>
+        <v>0.9826401748793793</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9471177770171778</v>
+        <v>0.9471177770171786</v>
       </c>
       <c r="D13">
-        <v>0.978190837382925</v>
+        <v>0.9781908373829254</v>
       </c>
       <c r="E13">
-        <v>0.9504944938215674</v>
+        <v>0.950494493821567</v>
       </c>
       <c r="F13">
-        <v>0.9673271181194236</v>
+        <v>0.967327118119424</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026811104500849</v>
       </c>
       <c r="J13">
-        <v>0.9792404525967083</v>
+        <v>0.9792404525967093</v>
       </c>
       <c r="K13">
-        <v>0.9937026592088496</v>
+        <v>0.9937026592088501</v>
       </c>
       <c r="L13">
-        <v>0.9665883723556984</v>
+        <v>0.9665883723556979</v>
       </c>
       <c r="M13">
-        <v>0.9830619981888684</v>
+        <v>0.9830619981888686</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9489555177962721</v>
+        <v>0.9489555177962733</v>
       </c>
       <c r="D14">
-        <v>0.9795576609900744</v>
+        <v>0.9795576609900754</v>
       </c>
       <c r="E14">
-        <v>0.9517204277047766</v>
+        <v>0.951720427704777</v>
       </c>
       <c r="F14">
-        <v>0.968884953653817</v>
+        <v>0.9688849536538179</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027464746586697</v>
+        <v>1.027464746586698</v>
       </c>
       <c r="J14">
-        <v>0.9806565106856023</v>
+        <v>0.9806565106856036</v>
       </c>
       <c r="K14">
-        <v>0.9948931590384799</v>
+        <v>0.9948931590384807</v>
       </c>
       <c r="L14">
-        <v>0.9676323681759875</v>
+        <v>0.9676323681759879</v>
       </c>
       <c r="M14">
-        <v>0.9844362931149334</v>
+        <v>0.9844362931149343</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9500794369785195</v>
+        <v>0.9500794369785207</v>
       </c>
       <c r="D15">
-        <v>0.9803938607531785</v>
+        <v>0.9803938607531797</v>
       </c>
       <c r="E15">
-        <v>0.9524712797670061</v>
+        <v>0.9524712797670069</v>
       </c>
       <c r="F15">
-        <v>0.969838311484465</v>
+        <v>0.9698383114844656</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027864210430604</v>
+        <v>1.027864210430605</v>
       </c>
       <c r="J15">
-        <v>0.9815225317585301</v>
+        <v>0.9815225317585311</v>
       </c>
       <c r="K15">
-        <v>0.9956211959673006</v>
+        <v>0.9956211959673017</v>
       </c>
       <c r="L15">
-        <v>0.9682715709365021</v>
+        <v>0.9682715709365026</v>
       </c>
       <c r="M15">
-        <v>0.9852771299273975</v>
+        <v>0.9852771299273982</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564985822753905</v>
+        <v>0.9564985822753902</v>
       </c>
       <c r="D16">
-        <v>0.9851736962763434</v>
+        <v>0.9851736962763432</v>
       </c>
       <c r="E16">
-        <v>0.9567756144510601</v>
+        <v>0.95677561445106</v>
       </c>
       <c r="F16">
-        <v>0.9752922986865815</v>
+        <v>0.9752922986865813</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030141211698457</v>
       </c>
       <c r="J16">
-        <v>0.986468452736871</v>
+        <v>0.9864684527368707</v>
       </c>
       <c r="K16">
-        <v>0.9997784232645465</v>
+        <v>0.9997784232645462</v>
       </c>
       <c r="L16">
-        <v>0.9719326363675508</v>
+        <v>0.9719326363675506</v>
       </c>
       <c r="M16">
-        <v>0.9900844249706493</v>
+        <v>0.990084424970649</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604226176529413</v>
+        <v>0.9604226176529406</v>
       </c>
       <c r="D17">
-        <v>0.988098799996423</v>
+        <v>0.9880987999964219</v>
       </c>
       <c r="E17">
-        <v>0.9594201417454631</v>
+        <v>0.9594201417454628</v>
       </c>
       <c r="F17">
-        <v>0.9786338002678283</v>
+        <v>0.9786338002678275</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031529059968611</v>
+        <v>1.03152905996861</v>
       </c>
       <c r="J17">
-        <v>0.9894915037950576</v>
+        <v>0.9894915037950567</v>
       </c>
       <c r="K17">
-        <v>1.002318768576147</v>
+        <v>1.002318768576146</v>
       </c>
       <c r="L17">
-        <v>0.974179169228619</v>
+        <v>0.9741791692286187</v>
       </c>
       <c r="M17">
-        <v>0.9930271229687673</v>
+        <v>0.9930271229687665</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9626765016475766</v>
+        <v>0.9626765016475756</v>
       </c>
       <c r="D18">
-        <v>0.989779954099025</v>
+        <v>0.9897799540990243</v>
       </c>
       <c r="E18">
-        <v>0.9609436365455781</v>
+        <v>0.9609436365455778</v>
       </c>
       <c r="F18">
-        <v>0.9805556296050374</v>
+        <v>0.9805556296050369</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032324683343362</v>
       </c>
       <c r="J18">
-        <v>0.9912276755867316</v>
+        <v>0.9912276755867306</v>
       </c>
       <c r="K18">
-        <v>1.003777461985867</v>
+        <v>1.003777461985866</v>
       </c>
       <c r="L18">
-        <v>0.9754724010028121</v>
+        <v>0.9754724010028115</v>
       </c>
       <c r="M18">
-        <v>0.9947186569769759</v>
+        <v>0.9947186569769754</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634392702745397</v>
+        <v>0.9634392702745377</v>
       </c>
       <c r="D19">
-        <v>0.9903490630883741</v>
+        <v>0.9903490630883717</v>
       </c>
       <c r="E19">
-        <v>0.9614599712961204</v>
+        <v>0.9614599712961194</v>
       </c>
       <c r="F19">
-        <v>0.9812064409308376</v>
+        <v>0.9812064409308359</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032593677080359</v>
+        <v>1.032593677080358</v>
       </c>
       <c r="J19">
-        <v>0.9918151975099643</v>
+        <v>0.9918151975099621</v>
       </c>
       <c r="K19">
-        <v>1.004271039465177</v>
+        <v>1.004271039465175</v>
       </c>
       <c r="L19">
-        <v>0.9759105314493829</v>
+        <v>0.9759105314493819</v>
       </c>
       <c r="M19">
-        <v>0.9952913238245412</v>
+        <v>0.9952913238245392</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9600052629242612</v>
+        <v>0.9600052629242622</v>
       </c>
       <c r="D20">
-        <v>0.9877875800849449</v>
+        <v>0.9877875800849459</v>
       </c>
       <c r="E20">
-        <v>0.9591383966973508</v>
+        <v>0.959138396697351</v>
       </c>
       <c r="F20">
-        <v>0.9782781354991115</v>
+        <v>0.9782781354991121</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031381608116985</v>
       </c>
       <c r="J20">
-        <v>0.9891699965033541</v>
+        <v>0.989169996503355</v>
       </c>
       <c r="K20">
-        <v>1.002048623964731</v>
+        <v>1.002048623964732</v>
       </c>
       <c r="L20">
         <v>0.9739399284272299</v>
       </c>
       <c r="M20">
-        <v>0.9927140028800093</v>
+        <v>0.99271400288001</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.948416106545822</v>
+        <v>0.9484161065458235</v>
       </c>
       <c r="D21">
-        <v>0.9791564129381433</v>
+        <v>0.9791564129381447</v>
       </c>
       <c r="E21">
-        <v>0.9513603616518304</v>
+        <v>0.951360361651831</v>
       </c>
       <c r="F21">
-        <v>0.968427568755577</v>
+        <v>0.9684275687555782</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027272950336062</v>
+        <v>1.027272950336063</v>
       </c>
       <c r="J21">
-        <v>0.9802408722054972</v>
+        <v>0.9802408722054987</v>
       </c>
       <c r="K21">
-        <v>0.9945437339681358</v>
+        <v>0.9945437339681371</v>
       </c>
       <c r="L21">
-        <v>0.9673257841869425</v>
+        <v>0.967325784186943</v>
       </c>
       <c r="M21">
-        <v>0.9840328378059575</v>
+        <v>0.984032837805959</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9407691115740869</v>
+        <v>0.9407691115740862</v>
       </c>
       <c r="D22">
-        <v>0.973473561209103</v>
+        <v>0.9734735612091022</v>
       </c>
       <c r="E22">
-        <v>0.9462766345045474</v>
+        <v>0.9462766345045471</v>
       </c>
       <c r="F22">
-        <v>0.9619552020163283</v>
+        <v>0.9619552020163279</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024548833898943</v>
       </c>
       <c r="J22">
-        <v>0.9743485983485936</v>
+        <v>0.9743485983485927</v>
       </c>
       <c r="K22">
-        <v>0.9895894861964984</v>
+        <v>0.9895894861964976</v>
       </c>
       <c r="L22">
-        <v>0.9629931626527172</v>
+        <v>0.9629931626527169</v>
       </c>
       <c r="M22">
-        <v>0.9783199817772057</v>
+        <v>0.9783199817772051</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448595396712173</v>
+        <v>0.9448595396712157</v>
       </c>
       <c r="D23">
-        <v>0.9765120682167761</v>
+        <v>0.9765120682167746</v>
       </c>
       <c r="E23">
-        <v>0.9489911160257912</v>
+        <v>0.9489911160257907</v>
       </c>
       <c r="F23">
-        <v>0.9654145676490502</v>
+        <v>0.965414567649049</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026007131074758</v>
+        <v>1.026007131074757</v>
       </c>
       <c r="J23">
-        <v>0.9775003820978364</v>
+        <v>0.9775003820978351</v>
       </c>
       <c r="K23">
-        <v>0.9922396578187813</v>
+        <v>0.9922396578187801</v>
       </c>
       <c r="L23">
-        <v>0.9653075119737706</v>
+        <v>0.9653075119737698</v>
       </c>
       <c r="M23">
-        <v>0.9813742376657877</v>
+        <v>0.9813742376657864</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9601939550606812</v>
+        <v>0.9601939550606821</v>
       </c>
       <c r="D24">
-        <v>0.9879282839332125</v>
+        <v>0.9879282839332134</v>
       </c>
       <c r="E24">
-        <v>0.959265763683626</v>
+        <v>0.9592657636836264</v>
       </c>
       <c r="F24">
-        <v>0.9784389288407473</v>
+        <v>0.9784389288407479</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.03144827800677</v>
       </c>
       <c r="J24">
-        <v>0.9893153552752281</v>
+        <v>0.9893153552752287</v>
       </c>
       <c r="K24">
-        <v>1.002170761617577</v>
+        <v>1.002170761617578</v>
       </c>
       <c r="L24">
-        <v>0.9740480837878039</v>
+        <v>0.9740480837878044</v>
       </c>
       <c r="M24">
-        <v>0.9928555649773294</v>
+        <v>0.99285556497733</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766328323311565</v>
+        <v>0.9766328323311545</v>
       </c>
       <c r="D25">
-        <v>1.000205186771601</v>
+        <v>1.0002051867716</v>
       </c>
       <c r="E25">
-        <v>0.9704505504711554</v>
+        <v>0.9704505504711548</v>
       </c>
       <c r="F25">
-        <v>0.9924966332463403</v>
+        <v>0.992496633246339</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037222907969461</v>
       </c>
       <c r="J25">
-        <v>1.001973022473029</v>
+        <v>1.001973022473027</v>
       </c>
       <c r="K25">
-        <v>1.012800318314433</v>
+        <v>1.012800318314431</v>
       </c>
       <c r="L25">
-        <v>0.9835255848573999</v>
+        <v>0.9835255848573993</v>
       </c>
       <c r="M25">
-        <v>1.005212556881136</v>
+        <v>1.005212556881135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9888418444679958</v>
+        <v>0.9917018621456385</v>
       </c>
       <c r="D2">
-        <v>1.009343633342619</v>
+        <v>1.011495120359617</v>
       </c>
       <c r="E2">
-        <v>0.9788702599390625</v>
+        <v>0.9797326580983698</v>
       </c>
       <c r="F2">
-        <v>1.00299951169134</v>
+        <v>1.004942644973593</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041459889876097</v>
+        <v>1.042596746903914</v>
       </c>
       <c r="J2">
-        <v>1.011361494206602</v>
+        <v>1.014133633911604</v>
       </c>
       <c r="K2">
-        <v>1.020674313376088</v>
+        <v>1.022796599551034</v>
       </c>
       <c r="L2">
-        <v>0.9906320314241948</v>
+        <v>0.991481761695401</v>
       </c>
       <c r="M2">
-        <v>1.014417216128663</v>
+        <v>1.016333547718572</v>
+      </c>
+      <c r="N2">
+        <v>1.015573819994512</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972593041630134</v>
+        <v>1.000097662899337</v>
       </c>
       <c r="D3">
-        <v>1.015651848701038</v>
+        <v>1.017790163594738</v>
       </c>
       <c r="E3">
-        <v>0.9847313559492333</v>
+        <v>0.9855832578370635</v>
       </c>
       <c r="F3">
-        <v>1.010271306403085</v>
+        <v>1.012198431988116</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044348969382345</v>
+        <v>1.045480043481404</v>
       </c>
       <c r="J3">
-        <v>1.017824963178719</v>
+        <v>1.020585665879676</v>
       </c>
       <c r="K3">
-        <v>1.026088302795681</v>
+        <v>1.028200365814312</v>
       </c>
       <c r="L3">
-        <v>0.9955634030828686</v>
+        <v>0.996403988687324</v>
       </c>
       <c r="M3">
-        <v>1.020774429398359</v>
+        <v>1.022677575006653</v>
+      </c>
+      <c r="N3">
+        <v>1.022035014588037</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002520069500727</v>
+        <v>1.005345934100735</v>
       </c>
       <c r="D4">
-        <v>1.019596803912441</v>
+        <v>1.021727585445268</v>
       </c>
       <c r="E4">
-        <v>0.9884179157295857</v>
+        <v>0.9892636884119722</v>
       </c>
       <c r="F4">
-        <v>1.014828727304212</v>
+        <v>1.016746572784043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046139111095771</v>
+        <v>1.047266958086394</v>
       </c>
       <c r="J4">
-        <v>1.021859530585042</v>
+        <v>1.024613871908081</v>
       </c>
       <c r="K4">
-        <v>1.029464328996842</v>
+        <v>1.031570663615598</v>
       </c>
       <c r="L4">
-        <v>0.9986581659379077</v>
+        <v>0.9994934419953486</v>
       </c>
       <c r="M4">
-        <v>1.024751417285334</v>
+        <v>1.026646997131968</v>
+      </c>
+      <c r="N4">
+        <v>1.026068941131044</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004689986211636</v>
+        <v>1.007510925907573</v>
       </c>
       <c r="D5">
-        <v>1.021224414965508</v>
+        <v>1.023352243486666</v>
       </c>
       <c r="E5">
-        <v>0.9899438237013322</v>
+        <v>0.990787163474363</v>
       </c>
       <c r="F5">
-        <v>1.016711381014556</v>
+        <v>1.018625558234878</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046873687488429</v>
+        <v>1.048000289541193</v>
       </c>
       <c r="J5">
-        <v>1.023522389730807</v>
+        <v>1.026274280597914</v>
       </c>
       <c r="K5">
-        <v>1.030854902400359</v>
+        <v>1.032959020429897</v>
       </c>
       <c r="L5">
-        <v>0.9999374625093006</v>
+        <v>1.000770638388824</v>
       </c>
       <c r="M5">
-        <v>1.026392562093233</v>
+        <v>1.028285170335355</v>
+      </c>
+      <c r="N5">
+        <v>1.027731707791668</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005051955166609</v>
+        <v>1.00787208619889</v>
       </c>
       <c r="D6">
-        <v>1.021495941586231</v>
+        <v>1.023623286225838</v>
       </c>
       <c r="E6">
-        <v>0.9901986672562435</v>
+        <v>0.9910416065727482</v>
       </c>
       <c r="F6">
-        <v>1.017025593073414</v>
+        <v>1.018939167384382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046995997439886</v>
+        <v>1.048122396710117</v>
       </c>
       <c r="J6">
-        <v>1.023799697120233</v>
+        <v>1.026551189014871</v>
       </c>
       <c r="K6">
-        <v>1.031086749890474</v>
+        <v>1.033190506436595</v>
       </c>
       <c r="L6">
-        <v>1.000151022199368</v>
+        <v>1.000983852828906</v>
       </c>
       <c r="M6">
-        <v>1.026666364755147</v>
+        <v>1.028558485718991</v>
+      </c>
+      <c r="N6">
+        <v>1.028009009450339</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002549224429182</v>
+        <v>1.005375021979273</v>
       </c>
       <c r="D7">
-        <v>1.019618670936886</v>
+        <v>1.021749412198431</v>
       </c>
       <c r="E7">
-        <v>0.9884383971654273</v>
+        <v>0.989284136792159</v>
       </c>
       <c r="F7">
-        <v>1.014854011543598</v>
+        <v>1.016771807122442</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046148996036498</v>
+        <v>1.047276825967135</v>
       </c>
       <c r="J7">
-        <v>1.021881877910962</v>
+        <v>1.024636185641479</v>
       </c>
       <c r="K7">
-        <v>1.029483020530696</v>
+        <v>1.031589324803379</v>
       </c>
       <c r="L7">
-        <v>0.9986753437829755</v>
+        <v>0.9995105912757245</v>
       </c>
       <c r="M7">
-        <v>1.024773464897224</v>
+        <v>1.026669004242904</v>
+      </c>
+      <c r="N7">
+        <v>1.026091286552503</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9917268267148904</v>
+        <v>0.9945791861340874</v>
       </c>
       <c r="D8">
-        <v>1.011505083392914</v>
+        <v>1.013651898953567</v>
       </c>
       <c r="E8">
-        <v>0.9808738969338391</v>
+        <v>0.9817326010408612</v>
       </c>
       <c r="F8">
-        <v>1.005489020884702</v>
+        <v>1.007426504896965</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042453306491747</v>
+        <v>1.043588095070813</v>
       </c>
       <c r="J8">
-        <v>1.013577768666358</v>
+        <v>1.016345811832538</v>
       </c>
       <c r="K8">
-        <v>1.02253143399739</v>
+        <v>1.024650068206463</v>
       </c>
       <c r="L8">
-        <v>0.992319331302522</v>
+        <v>0.9931658365101944</v>
       </c>
       <c r="M8">
-        <v>1.016595149723847</v>
+        <v>1.018506810445665</v>
+      </c>
+      <c r="N8">
+        <v>1.017789139461834</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971090566292625</v>
+        <v>0.9740033516476636</v>
       </c>
       <c r="D9">
-        <v>0.9960621836901554</v>
+        <v>0.9982461489619667</v>
       </c>
       <c r="E9">
-        <v>0.9666601510091432</v>
+        <v>0.9675475715537926</v>
       </c>
       <c r="F9">
-        <v>0.9877463213620922</v>
+        <v>0.9897281034274746</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035284006202958</v>
+        <v>1.036435624141131</v>
       </c>
       <c r="J9">
-        <v>0.9977071832040759</v>
+        <v>1.000508741193608</v>
       </c>
       <c r="K9">
-        <v>1.009219473944935</v>
+        <v>1.011367745410183</v>
       </c>
       <c r="L9">
-        <v>0.9803183418175566</v>
+        <v>0.9811900662496357</v>
       </c>
       <c r="M9">
-        <v>1.00104138459049</v>
+        <v>1.002990062832243</v>
+      </c>
+      <c r="N9">
+        <v>1.00192957836606</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9560502597603306</v>
+        <v>0.9590159418910444</v>
       </c>
       <c r="D10">
-        <v>0.9848396520362108</v>
+        <v>0.9870564892830167</v>
       </c>
       <c r="E10">
-        <v>0.9564741159859249</v>
+        <v>0.9573860096005741</v>
       </c>
       <c r="F10">
-        <v>0.9749108900997275</v>
+        <v>0.9769310122859776</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029982443920338</v>
+        <v>1.03114944461161</v>
       </c>
       <c r="J10">
-        <v>0.9861230442192636</v>
+        <v>0.9889555781656324</v>
       </c>
       <c r="K10">
-        <v>0.999488134631597</v>
+        <v>1.001663442648773</v>
       </c>
       <c r="L10">
-        <v>0.971676377004994</v>
+        <v>0.9725697952920861</v>
       </c>
       <c r="M10">
-        <v>0.9897484093880003</v>
+        <v>0.991729662223881</v>
+      </c>
+      <c r="N10">
+        <v>0.9903600085214177</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9491705448465534</v>
+        <v>0.9521631693558726</v>
       </c>
       <c r="D11">
-        <v>0.9797176253970377</v>
+        <v>0.981951275036905</v>
       </c>
       <c r="E11">
-        <v>0.9518640154461137</v>
+        <v>0.9527881831675717</v>
       </c>
       <c r="F11">
-        <v>0.969067312615176</v>
+        <v>0.9711068333482937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027541188782586</v>
+        <v>1.02871616822005</v>
       </c>
       <c r="J11">
-        <v>0.9808221974853423</v>
+        <v>0.9836709116973469</v>
       </c>
       <c r="K11">
-        <v>0.9950324491373381</v>
+        <v>0.9972217839211704</v>
       </c>
       <c r="L11">
-        <v>0.9677546176692302</v>
+        <v>0.9686589654360237</v>
       </c>
       <c r="M11">
-        <v>0.984597140708141</v>
+        <v>0.9865950071623258</v>
+      </c>
+      <c r="N11">
+        <v>0.9850678372205878</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9465535117627045</v>
+        <v>0.949556867272221</v>
       </c>
       <c r="D12">
-        <v>0.977771280380405</v>
+        <v>0.9800116353862607</v>
       </c>
       <c r="E12">
-        <v>0.9501185281047102</v>
+        <v>0.9510475526200302</v>
       </c>
       <c r="F12">
-        <v>0.9668490498167879</v>
+        <v>0.9688962749252156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026610294002668</v>
+        <v>1.027788471956303</v>
       </c>
       <c r="J12">
-        <v>0.9788056609417484</v>
+        <v>0.981660881494231</v>
       </c>
       <c r="K12">
-        <v>0.9933371087470586</v>
+        <v>0.9955320684457754</v>
       </c>
       <c r="L12">
-        <v>0.9662681152420646</v>
+        <v>0.9671767953026207</v>
       </c>
       <c r="M12">
-        <v>0.9826401748793793</v>
+        <v>0.9846446600003603</v>
+      </c>
+      <c r="N12">
+        <v>0.9830549525440297</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9471177770171786</v>
+        <v>0.9501187957654086</v>
       </c>
       <c r="D13">
-        <v>0.9781908373829254</v>
+        <v>0.9804297318576467</v>
       </c>
       <c r="E13">
-        <v>0.950494493821567</v>
+        <v>0.9514224622169069</v>
       </c>
       <c r="F13">
-        <v>0.967327118119424</v>
+        <v>0.9693726665655024</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026811104500849</v>
+        <v>1.027988585043596</v>
       </c>
       <c r="J13">
-        <v>0.9792404525967093</v>
+        <v>0.9820942535493959</v>
       </c>
       <c r="K13">
-        <v>0.9937026592088501</v>
+        <v>0.9958963923341893</v>
       </c>
       <c r="L13">
-        <v>0.9665883723556979</v>
+        <v>0.9674961100077759</v>
       </c>
       <c r="M13">
-        <v>0.9830619981888686</v>
+        <v>0.9850650420029208</v>
+      </c>
+      <c r="N13">
+        <v>0.9834889400372214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9489555177962733</v>
+        <v>0.9519490137982461</v>
       </c>
       <c r="D14">
-        <v>0.9795576609900754</v>
+        <v>0.9817918550172189</v>
       </c>
       <c r="E14">
-        <v>0.951720427704777</v>
+        <v>0.9526449905155987</v>
       </c>
       <c r="F14">
-        <v>0.9688849536538179</v>
+        <v>0.9709251005327799</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027464746586698</v>
+        <v>1.028639985378164</v>
       </c>
       <c r="J14">
-        <v>0.9806565106856036</v>
+        <v>0.9835057520534087</v>
       </c>
       <c r="K14">
-        <v>0.9948931590384807</v>
+        <v>0.9970829498776023</v>
       </c>
       <c r="L14">
-        <v>0.9676323681759879</v>
+        <v>0.968537068213002</v>
       </c>
       <c r="M14">
-        <v>0.9844362931149343</v>
+        <v>0.9864346970681405</v>
+      </c>
+      <c r="N14">
+        <v>0.984902443031011</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9500794369785207</v>
+        <v>0.953068397804699</v>
       </c>
       <c r="D15">
-        <v>0.9803938607531797</v>
+        <v>0.9826252221872416</v>
       </c>
       <c r="E15">
-        <v>0.9524712797670069</v>
+        <v>0.9533937852751211</v>
       </c>
       <c r="F15">
-        <v>0.9698383114844656</v>
+        <v>0.9718751990626942</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027864210430605</v>
+        <v>1.029038100380589</v>
       </c>
       <c r="J15">
-        <v>0.9815225317585311</v>
+        <v>0.9843690323201232</v>
       </c>
       <c r="K15">
-        <v>0.9956211959673017</v>
+        <v>0.997808615048293</v>
       </c>
       <c r="L15">
-        <v>0.9682715709365026</v>
+        <v>0.9691744369407753</v>
       </c>
       <c r="M15">
-        <v>0.9852771299273982</v>
+        <v>0.987272736831122</v>
+      </c>
+      <c r="N15">
+        <v>0.9857669492547239</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564985822753902</v>
+        <v>0.9594625707425516</v>
       </c>
       <c r="D16">
-        <v>0.9851736962763432</v>
+        <v>0.9873894779188614</v>
       </c>
       <c r="E16">
-        <v>0.95677561445106</v>
+        <v>0.9576867324713304</v>
       </c>
       <c r="F16">
-        <v>0.9752922986865813</v>
+        <v>0.9773111986860133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030141211698457</v>
+        <v>1.031307713582867</v>
       </c>
       <c r="J16">
-        <v>0.9864684527368707</v>
+        <v>0.989299977597242</v>
       </c>
       <c r="K16">
-        <v>0.9997784232645462</v>
+        <v>1.001952854545527</v>
       </c>
       <c r="L16">
-        <v>0.9719326363675506</v>
+        <v>0.9728253650156964</v>
       </c>
       <c r="M16">
-        <v>0.990084424970649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9920646337328592</v>
+      </c>
+      <c r="N16">
+        <v>0.9907048970397235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604226176529406</v>
+        <v>0.9633720967141203</v>
       </c>
       <c r="D17">
-        <v>0.9880987999964219</v>
+        <v>0.9903055456182401</v>
       </c>
       <c r="E17">
-        <v>0.9594201417454628</v>
+        <v>0.9603245947915249</v>
       </c>
       <c r="F17">
-        <v>0.9786338002678275</v>
+        <v>0.9806422159694638</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03152905996861</v>
+        <v>1.032691303746554</v>
       </c>
       <c r="J17">
-        <v>0.9894915037950567</v>
+        <v>0.9923144267555721</v>
       </c>
       <c r="K17">
-        <v>1.002318768576146</v>
+        <v>1.004485716039911</v>
       </c>
       <c r="L17">
-        <v>0.9741791692286187</v>
+        <v>0.9750659768224397</v>
       </c>
       <c r="M17">
-        <v>0.9930271229687665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9949983894405773</v>
+      </c>
+      <c r="N17">
+        <v>0.9937236270616209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9626765016475756</v>
+        <v>0.9656178980045782</v>
       </c>
       <c r="D18">
-        <v>0.9897799540990243</v>
+        <v>0.9919816722119409</v>
       </c>
       <c r="E18">
-        <v>0.9609436365455778</v>
+        <v>0.9618443602604871</v>
       </c>
       <c r="F18">
-        <v>0.9805556296050369</v>
+        <v>0.9825581936829793</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032324683343362</v>
+        <v>1.03348456769885</v>
       </c>
       <c r="J18">
-        <v>0.9912276755867306</v>
+        <v>0.9940458418835203</v>
       </c>
       <c r="K18">
-        <v>1.003777461985866</v>
+        <v>1.005940262874478</v>
       </c>
       <c r="L18">
-        <v>0.9754724010028115</v>
+        <v>0.9763558998556734</v>
       </c>
       <c r="M18">
-        <v>0.9947186569769754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9966849440439723</v>
+      </c>
+      <c r="N18">
+        <v>0.9954575009976466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634392702745377</v>
+        <v>0.9663779720495888</v>
       </c>
       <c r="D19">
-        <v>0.9903490630883717</v>
+        <v>0.9925491062282302</v>
       </c>
       <c r="E19">
-        <v>0.9614599712961194</v>
+        <v>0.9623594490231426</v>
       </c>
       <c r="F19">
-        <v>0.9812064409308359</v>
+        <v>0.9832070523837627</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032593677080358</v>
+        <v>1.033752777028574</v>
       </c>
       <c r="J19">
-        <v>0.9918151975099621</v>
+        <v>0.9946317839817247</v>
       </c>
       <c r="K19">
-        <v>1.004271039465175</v>
+        <v>1.006432461795159</v>
       </c>
       <c r="L19">
-        <v>0.9759105314493819</v>
+        <v>0.9767929255674569</v>
       </c>
       <c r="M19">
-        <v>0.9952913238245392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.997255951268365</v>
+      </c>
+      <c r="N19">
+        <v>0.9960442752008389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9600052629242622</v>
+        <v>0.9629562586062729</v>
       </c>
       <c r="D20">
-        <v>0.9877875800849459</v>
+        <v>0.9899952695730415</v>
       </c>
       <c r="E20">
-        <v>0.959138396697351</v>
+        <v>0.9600435481681651</v>
       </c>
       <c r="F20">
-        <v>0.9782781354991121</v>
+        <v>0.9802876482818326</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031381608116985</v>
+        <v>1.032544295658092</v>
       </c>
       <c r="J20">
-        <v>0.989169996503355</v>
+        <v>0.9919938148823682</v>
       </c>
       <c r="K20">
-        <v>1.002048623964732</v>
+        <v>1.004216351330742</v>
       </c>
       <c r="L20">
-        <v>0.9739399284272299</v>
+        <v>0.9748273560335788</v>
       </c>
       <c r="M20">
-        <v>0.99271400288001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9946862038560036</v>
+      </c>
+      <c r="N20">
+        <v>0.9934025598827819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9484161065458235</v>
+        <v>0.9514117967578755</v>
       </c>
       <c r="D21">
-        <v>0.9791564129381447</v>
+        <v>0.9813919777416983</v>
       </c>
       <c r="E21">
-        <v>0.951360361651831</v>
+        <v>0.9522859186848358</v>
       </c>
       <c r="F21">
-        <v>0.9684275687555782</v>
+        <v>0.9704692917623915</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027272950336063</v>
+        <v>1.028448842443082</v>
       </c>
       <c r="J21">
-        <v>0.9802408722054987</v>
+        <v>0.983091441811841</v>
       </c>
       <c r="K21">
-        <v>0.9945437339681371</v>
+        <v>0.9967346736497534</v>
       </c>
       <c r="L21">
-        <v>0.967325784186943</v>
+        <v>0.9682313708148332</v>
       </c>
       <c r="M21">
-        <v>0.984032837805959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9860325950715181</v>
+      </c>
+      <c r="N21">
+        <v>0.9844875444213782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9407691115740862</v>
+        <v>0.9437971690824705</v>
       </c>
       <c r="D22">
-        <v>0.9734735612091022</v>
+        <v>0.9757293669942317</v>
       </c>
       <c r="E22">
-        <v>0.9462766345045471</v>
+        <v>0.9472167746301173</v>
       </c>
       <c r="F22">
-        <v>0.9619552020163279</v>
+        <v>0.9640201173978561</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024548833898943</v>
+        <v>1.025734412467898</v>
       </c>
       <c r="J22">
-        <v>0.9743485983485927</v>
+        <v>0.9772189144742426</v>
       </c>
       <c r="K22">
-        <v>0.9895894861964976</v>
+        <v>0.9917974657401576</v>
       </c>
       <c r="L22">
-        <v>0.9629931626527169</v>
+        <v>0.9639117723878523</v>
       </c>
       <c r="M22">
-        <v>0.9783199817772051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9803397033271219</v>
+      </c>
+      <c r="N22">
+        <v>0.9786066774213721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9448595396712157</v>
+        <v>0.9478699872879941</v>
       </c>
       <c r="D23">
-        <v>0.9765120682167746</v>
+        <v>0.978756857180664</v>
       </c>
       <c r="E23">
-        <v>0.9489911160257907</v>
+        <v>0.9499233409159925</v>
       </c>
       <c r="F23">
-        <v>0.965414567649049</v>
+        <v>0.9674668780136774</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026007131074757</v>
+        <v>1.027187428637416</v>
       </c>
       <c r="J23">
-        <v>0.9775003820978351</v>
+        <v>0.9803599203547767</v>
       </c>
       <c r="K23">
-        <v>0.9922396578187801</v>
+        <v>0.9944383457672368</v>
       </c>
       <c r="L23">
-        <v>0.9653075119737698</v>
+        <v>0.9662190489540433</v>
       </c>
       <c r="M23">
-        <v>0.9813742376657864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9833830972555269</v>
+      </c>
+      <c r="N23">
+        <v>0.9817521438905351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9601939550606821</v>
+        <v>0.9631442642799314</v>
       </c>
       <c r="D24">
-        <v>0.9879282839332134</v>
+        <v>0.9901355461829503</v>
       </c>
       <c r="E24">
-        <v>0.9592657636836264</v>
+        <v>0.9601705990806767</v>
       </c>
       <c r="F24">
-        <v>0.9784389288407479</v>
+        <v>0.9804479450905567</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03144827800677</v>
+        <v>1.032610764649068</v>
       </c>
       <c r="J24">
-        <v>0.9893153552752287</v>
+        <v>0.9921387682533932</v>
       </c>
       <c r="K24">
-        <v>1.002170761617578</v>
+        <v>1.004338135908547</v>
       </c>
       <c r="L24">
-        <v>0.9740480837878044</v>
+        <v>0.9749352307923987</v>
       </c>
       <c r="M24">
-        <v>0.99285556497733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9948273429654203</v>
+      </c>
+      <c r="N24">
+        <v>0.9935477191042201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766328323311545</v>
+        <v>0.9795280691560341</v>
       </c>
       <c r="D25">
-        <v>1.0002051867716</v>
+        <v>1.002378305269662</v>
       </c>
       <c r="E25">
-        <v>0.9704505504711548</v>
+        <v>0.9713297256119044</v>
       </c>
       <c r="F25">
-        <v>0.992496633246339</v>
+        <v>0.994465611671001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037222907969461</v>
+        <v>1.038369534920504</v>
       </c>
       <c r="J25">
-        <v>1.001973022473027</v>
+        <v>1.004764598049437</v>
       </c>
       <c r="K25">
-        <v>1.012800318314431</v>
+        <v>1.014939812962925</v>
       </c>
       <c r="L25">
-        <v>0.9835255848573993</v>
+        <v>0.9843900368745778</v>
       </c>
       <c r="M25">
-        <v>1.005212556881135</v>
+        <v>1.007150453762604</v>
+      </c>
+      <c r="N25">
+        <v>1.006191479026778</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9917018621456385</v>
+        <v>1.010179389981271</v>
       </c>
       <c r="D2">
-        <v>1.011495120359617</v>
+        <v>1.02829121475915</v>
       </c>
       <c r="E2">
-        <v>0.9797326580983698</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.004942644973593</v>
+        <v>1.028988571111668</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042596746903914</v>
+        <v>1.045955296541508</v>
       </c>
       <c r="J2">
-        <v>1.014133633911604</v>
+        <v>1.032059842317397</v>
       </c>
       <c r="K2">
-        <v>1.022796599551034</v>
+        <v>1.039369991140225</v>
       </c>
       <c r="L2">
-        <v>0.991481761695401</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.016333547718572</v>
+        <v>1.040058297892848</v>
       </c>
       <c r="N2">
-        <v>1.015573819994512</v>
+        <v>1.033525485672406</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000097662899337</v>
+        <v>1.016899024283444</v>
       </c>
       <c r="D3">
-        <v>1.017790163594738</v>
+        <v>1.033568305085606</v>
       </c>
       <c r="E3">
-        <v>0.9855832578370635</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.012198431988116</v>
+        <v>1.035107424887102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045480043481404</v>
+        <v>1.047935410723017</v>
       </c>
       <c r="J3">
-        <v>1.020585665879676</v>
+        <v>1.036939371176825</v>
       </c>
       <c r="K3">
-        <v>1.028200365814312</v>
+        <v>1.043788960059342</v>
       </c>
       <c r="L3">
-        <v>0.996403988687324</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.022677575006653</v>
+        <v>1.045309972929848</v>
       </c>
       <c r="N3">
-        <v>1.022035014588037</v>
+        <v>1.038411944022504</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005345934100735</v>
+        <v>1.021125692515706</v>
       </c>
       <c r="D4">
-        <v>1.021727585445268</v>
+        <v>1.036890146764269</v>
       </c>
       <c r="E4">
-        <v>0.9892636884119722</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.016746572784043</v>
+        <v>1.038962590485018</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047266958086394</v>
+        <v>1.049169106312344</v>
       </c>
       <c r="J4">
-        <v>1.024613871908081</v>
+        <v>1.040004015096745</v>
       </c>
       <c r="K4">
-        <v>1.031570663615598</v>
+        <v>1.046562829279838</v>
       </c>
       <c r="L4">
-        <v>0.9994934419953486</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.026646997131968</v>
+        <v>1.048612457768421</v>
       </c>
       <c r="N4">
-        <v>1.026068941131044</v>
+        <v>1.041480940088311</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007510925907573</v>
+        <v>1.022875004839508</v>
       </c>
       <c r="D5">
-        <v>1.023352243486666</v>
+        <v>1.038265491685406</v>
       </c>
       <c r="E5">
-        <v>0.990787163474363</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.018625558234878</v>
+        <v>1.040559601196059</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048000289541193</v>
+        <v>1.049676814887393</v>
       </c>
       <c r="J5">
-        <v>1.026274280597914</v>
+        <v>1.041271237671255</v>
       </c>
       <c r="K5">
-        <v>1.032959020429897</v>
+        <v>1.047709432903182</v>
       </c>
       <c r="L5">
-        <v>1.000770638388824</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.028285170335355</v>
+        <v>1.049979000694359</v>
       </c>
       <c r="N5">
-        <v>1.027731707791668</v>
+        <v>1.042749962264229</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00787208619889</v>
+        <v>1.023167145797151</v>
       </c>
       <c r="D6">
-        <v>1.023623286225838</v>
+        <v>1.038495206740857</v>
       </c>
       <c r="E6">
-        <v>0.9910416065727482</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.018939167384382</v>
+        <v>1.040826390585646</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048122396710117</v>
+        <v>1.049761432535111</v>
       </c>
       <c r="J6">
-        <v>1.026551189014871</v>
+        <v>1.041482798460228</v>
       </c>
       <c r="K6">
-        <v>1.033190506436595</v>
+        <v>1.047900833353642</v>
       </c>
       <c r="L6">
-        <v>1.000983852828906</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.028558485718991</v>
+        <v>1.050207199791551</v>
       </c>
       <c r="N6">
-        <v>1.028009009450339</v>
+        <v>1.042961823493789</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005375021979273</v>
+        <v>1.021149173404114</v>
       </c>
       <c r="D7">
-        <v>1.021749412198431</v>
+        <v>1.036908605984425</v>
       </c>
       <c r="E7">
-        <v>0.989284136792159</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.016771807122442</v>
+        <v>1.03898402138795</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047276825967135</v>
+        <v>1.049175932741836</v>
       </c>
       <c r="J7">
-        <v>1.024636185641479</v>
+        <v>1.040021029578541</v>
       </c>
       <c r="K7">
-        <v>1.031589324803379</v>
+        <v>1.046578225808313</v>
       </c>
       <c r="L7">
-        <v>0.9995105912757245</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.026669004242904</v>
+        <v>1.048630801945483</v>
       </c>
       <c r="N7">
-        <v>1.026091286552503</v>
+        <v>1.041497978732622</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9945791861340874</v>
+        <v>1.012476383533252</v>
       </c>
       <c r="D8">
-        <v>1.013651898953567</v>
+        <v>1.030094506250099</v>
       </c>
       <c r="E8">
-        <v>0.9817326010408612</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.007426504896965</v>
+        <v>1.031078800556675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043588095070813</v>
+        <v>1.04663461810998</v>
       </c>
       <c r="J8">
-        <v>1.016345811832538</v>
+        <v>1.033728760411388</v>
       </c>
       <c r="K8">
-        <v>1.024650068206463</v>
+        <v>1.0408816929696</v>
       </c>
       <c r="L8">
-        <v>0.9931658365101944</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.018506810445665</v>
+        <v>1.041853623591661</v>
       </c>
       <c r="N8">
-        <v>1.017789139461834</v>
+        <v>1.035196773821518</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9740033516476636</v>
+        <v>0.9961911112095522</v>
       </c>
       <c r="D9">
-        <v>0.9982461489619667</v>
+        <v>1.017324558995125</v>
       </c>
       <c r="E9">
-        <v>0.9675475715537926</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9897281034274746</v>
+        <v>1.016290612724335</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036435624141131</v>
+        <v>1.041769920648201</v>
       </c>
       <c r="J9">
-        <v>1.000508741193608</v>
+        <v>1.021879091853198</v>
       </c>
       <c r="K9">
-        <v>1.011367745410183</v>
+        <v>1.030142674328309</v>
       </c>
       <c r="L9">
-        <v>0.9811900662496357</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>1.002990062832243</v>
+        <v>1.029124801821705</v>
       </c>
       <c r="N9">
-        <v>1.00192957836606</v>
+        <v>1.0233302773748</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9590159418910444</v>
+        <v>0.9845463437393881</v>
       </c>
       <c r="D10">
-        <v>0.9870564892830167</v>
+        <v>1.008217818959986</v>
       </c>
       <c r="E10">
-        <v>0.9573860096005741</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.9769310122859776</v>
+        <v>1.005760775323981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03114944461161</v>
+        <v>1.03823231359749</v>
       </c>
       <c r="J10">
-        <v>0.9889555781656324</v>
+        <v>1.013386799027893</v>
       </c>
       <c r="K10">
-        <v>1.001663442648773</v>
+        <v>1.022440266605177</v>
       </c>
       <c r="L10">
-        <v>0.9725697952920861</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.991729662223881</v>
+        <v>1.020026790400763</v>
       </c>
       <c r="N10">
-        <v>0.9903600085214177</v>
+        <v>1.014825924519603</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9521631693558726</v>
+        <v>0.9792877644960706</v>
       </c>
       <c r="D11">
-        <v>0.981951275036905</v>
+        <v>1.00411299411105</v>
       </c>
       <c r="E11">
-        <v>0.9527881831675717</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9711068333482937</v>
+        <v>1.001017879861158</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02871616822005</v>
+        <v>1.036621747370978</v>
       </c>
       <c r="J11">
-        <v>0.9836709116973469</v>
+        <v>1.009548323693512</v>
       </c>
       <c r="K11">
-        <v>0.9972217839211704</v>
+        <v>1.018957759993563</v>
       </c>
       <c r="L11">
-        <v>0.9686589654360237</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9865950071623258</v>
+        <v>1.015920625954306</v>
       </c>
       <c r="N11">
-        <v>0.9850678372205878</v>
+        <v>1.010981998109968</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.949556867272221</v>
+        <v>0.9772991326524724</v>
       </c>
       <c r="D12">
-        <v>0.9800116353862607</v>
+        <v>1.002561995371121</v>
       </c>
       <c r="E12">
-        <v>0.9510475526200302</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9688962749252156</v>
+        <v>0.9992262536132136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027788471956303</v>
+        <v>1.036010814647</v>
       </c>
       <c r="J12">
-        <v>0.981660881494231</v>
+        <v>1.008096305673009</v>
       </c>
       <c r="K12">
-        <v>0.9955320684457754</v>
+        <v>1.01764027564657</v>
       </c>
       <c r="L12">
-        <v>0.9671767953026207</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>0.9846446600003603</v>
+        <v>1.014368292410868</v>
       </c>
       <c r="N12">
-        <v>0.9830549525440297</v>
+        <v>1.009527918057327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9501187957654086</v>
+        <v>0.9777273508498293</v>
       </c>
       <c r="D13">
-        <v>0.9804297318576467</v>
+        <v>1.002895914192909</v>
       </c>
       <c r="E13">
-        <v>0.9514224622169069</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9693726665655024</v>
+        <v>0.9996119574778807</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027988585043596</v>
+        <v>1.036142451331029</v>
       </c>
       <c r="J13">
-        <v>0.9820942535493959</v>
+        <v>1.00840899066078</v>
       </c>
       <c r="K13">
-        <v>0.9958963923341893</v>
+        <v>1.017923994358226</v>
       </c>
       <c r="L13">
-        <v>0.9674961100077759</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9850650420029208</v>
+        <v>1.014702536633713</v>
       </c>
       <c r="N13">
-        <v>0.9834889400372214</v>
+        <v>1.009841047093646</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9519490137982461</v>
+        <v>0.9791241227078327</v>
       </c>
       <c r="D14">
-        <v>0.9817918550172189</v>
+        <v>1.00398533674116</v>
       </c>
       <c r="E14">
-        <v>0.9526449905155987</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9709251005327799</v>
+        <v>1.000870408069764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028639985378164</v>
+        <v>1.036571511848573</v>
       </c>
       <c r="J14">
-        <v>0.9835057520534087</v>
+        <v>1.009428847140169</v>
       </c>
       <c r="K14">
-        <v>0.9970829498776023</v>
+        <v>1.018849355544873</v>
       </c>
       <c r="L14">
-        <v>0.968537068213002</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9864346970681405</v>
+        <v>1.015792875755079</v>
       </c>
       <c r="N14">
-        <v>0.984902443031011</v>
+        <v>1.010862351886215</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.953068397804699</v>
+        <v>0.9799799427628376</v>
       </c>
       <c r="D15">
-        <v>0.9826252221872416</v>
+        <v>1.004653018810258</v>
       </c>
       <c r="E15">
-        <v>0.9533937852751211</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9718751990626942</v>
+        <v>1.001641743536845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029038100380589</v>
+        <v>1.036834160188809</v>
       </c>
       <c r="J15">
-        <v>0.9843690323201232</v>
+        <v>1.010053673490208</v>
       </c>
       <c r="K15">
-        <v>0.997808615048293</v>
+        <v>1.019416273385801</v>
       </c>
       <c r="L15">
-        <v>0.9691744369407753</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.987272736831122</v>
+        <v>1.016461009420853</v>
       </c>
       <c r="N15">
-        <v>0.9857669492547239</v>
+        <v>1.01148806556134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9594625707425516</v>
+        <v>0.9848905441374856</v>
       </c>
       <c r="D16">
-        <v>0.9873894779188614</v>
+        <v>1.008486672458793</v>
       </c>
       <c r="E16">
-        <v>0.9576867324713304</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9773111986860133</v>
+        <v>1.00607148716522</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031307713582867</v>
+        <v>1.038337470718394</v>
       </c>
       <c r="J16">
-        <v>0.989299977597242</v>
+        <v>1.01363798221294</v>
       </c>
       <c r="K16">
-        <v>1.001952854545527</v>
+        <v>1.022668136944353</v>
       </c>
       <c r="L16">
-        <v>0.9728253650156964</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9920646337328592</v>
+        <v>1.020295619340736</v>
       </c>
       <c r="N16">
-        <v>0.9907048970397235</v>
+        <v>1.015077464413584</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9633720967141203</v>
+        <v>0.9879110038768755</v>
       </c>
       <c r="D17">
-        <v>0.9903055456182401</v>
+        <v>1.010846821442334</v>
       </c>
       <c r="E17">
-        <v>0.9603245947915249</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9806422159694638</v>
+        <v>1.008799470434049</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032691303746554</v>
+        <v>1.039258792362297</v>
       </c>
       <c r="J17">
-        <v>0.9923144267555721</v>
+        <v>1.015841804235095</v>
       </c>
       <c r="K17">
-        <v>1.004485716039911</v>
+        <v>1.024667302429367</v>
       </c>
       <c r="L17">
-        <v>0.9750659768224397</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9949983894405773</v>
+        <v>1.022654952325104</v>
       </c>
       <c r="N17">
-        <v>0.9937236270616209</v>
+        <v>1.017284416115792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9656178980045782</v>
+        <v>0.9896521258338814</v>
       </c>
       <c r="D18">
-        <v>0.9919816722119409</v>
+        <v>1.012208017278195</v>
       </c>
       <c r="E18">
-        <v>0.9618443602604871</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9825581936829793</v>
+        <v>1.010373133262285</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03348456769885</v>
+        <v>1.039788648002567</v>
       </c>
       <c r="J18">
-        <v>0.9940458418835203</v>
+        <v>1.017111845072183</v>
       </c>
       <c r="K18">
-        <v>1.005940262874478</v>
+        <v>1.025819299954655</v>
       </c>
       <c r="L18">
-        <v>0.9763558998556734</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9966849440439723</v>
+        <v>1.024015183339237</v>
       </c>
       <c r="N18">
-        <v>0.9954575009976466</v>
+        <v>1.018556260556545</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9663779720495888</v>
+        <v>0.9902423804092179</v>
       </c>
       <c r="D19">
-        <v>0.9925491062282302</v>
+        <v>1.012669588552142</v>
       </c>
       <c r="E19">
-        <v>0.9623594490231426</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
-        <v>0.9832070523837627</v>
+        <v>1.010906806269722</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033752777028574</v>
+        <v>1.039968061534591</v>
       </c>
       <c r="J19">
-        <v>0.9946317839817247</v>
+        <v>1.017542339442276</v>
       </c>
       <c r="K19">
-        <v>1.006432461795159</v>
+        <v>1.026209763950777</v>
       </c>
       <c r="L19">
-        <v>0.9767929255674569</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
-        <v>0.997255951268365</v>
+        <v>1.024476344637204</v>
       </c>
       <c r="N19">
-        <v>0.9960442752008389</v>
+        <v>1.018987366278022</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9629562586062729</v>
+        <v>0.9875890938080393</v>
       </c>
       <c r="D20">
-        <v>0.9899952695730415</v>
+        <v>1.010595210545501</v>
       </c>
       <c r="E20">
-        <v>0.9600435481681651</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9802876482818326</v>
+        <v>1.008508612309337</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032544295658092</v>
+        <v>1.039160728646605</v>
       </c>
       <c r="J20">
-        <v>0.9919938148823682</v>
+        <v>1.015606962828471</v>
       </c>
       <c r="K20">
-        <v>1.004216351330742</v>
+        <v>1.024454279749778</v>
       </c>
       <c r="L20">
-        <v>0.9748273560335788</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9946862038560036</v>
+        <v>1.022403480005945</v>
       </c>
       <c r="N20">
-        <v>0.9934025598827819</v>
+        <v>1.017049241207435</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9514117967578755</v>
+        <v>0.9787138090748791</v>
       </c>
       <c r="D21">
-        <v>0.9813919777416983</v>
+        <v>1.003665271877941</v>
       </c>
       <c r="E21">
-        <v>0.9522859186848358</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.9704692917623915</v>
+        <v>1.000500671477527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028448842443082</v>
+        <v>1.036445522161102</v>
       </c>
       <c r="J21">
-        <v>0.983091441811841</v>
+        <v>1.009129266450129</v>
       </c>
       <c r="K21">
-        <v>0.9967346736497534</v>
+        <v>1.018577535695576</v>
       </c>
       <c r="L21">
-        <v>0.9682313708148332</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
-        <v>0.9860325950715181</v>
+        <v>1.015472564688827</v>
       </c>
       <c r="N21">
-        <v>0.9844875444213782</v>
+        <v>1.010562345757233</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9437971690824705</v>
+        <v>0.9729272942019109</v>
       </c>
       <c r="D22">
-        <v>0.9757293669942317</v>
+        <v>0.9991548957989415</v>
       </c>
       <c r="E22">
-        <v>0.9472167746301173</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9640201173978561</v>
+        <v>0.9952913734488682</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025734412467898</v>
+        <v>1.034664399395599</v>
       </c>
       <c r="J22">
-        <v>0.9772189144742426</v>
+        <v>1.004903502508596</v>
       </c>
       <c r="K22">
-        <v>0.9917974657401576</v>
+        <v>1.014743112979361</v>
       </c>
       <c r="L22">
-        <v>0.9639117723878523</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9803397033271219</v>
+        <v>1.010956689833115</v>
       </c>
       <c r="N22">
-        <v>0.9786066774213721</v>
+        <v>1.006330580746201</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9478699872879941</v>
+        <v>0.9760154365461267</v>
       </c>
       <c r="D23">
-        <v>0.978756857180664</v>
+        <v>1.001561193959363</v>
       </c>
       <c r="E23">
-        <v>0.9499233409159925</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9674668780136774</v>
+        <v>0.9980703100357809</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027187428637416</v>
+        <v>1.035615933284984</v>
       </c>
       <c r="J23">
-        <v>0.9803599203547767</v>
+        <v>1.007158896506706</v>
       </c>
       <c r="K23">
-        <v>0.9944383457672368</v>
+        <v>1.01678969057033</v>
       </c>
       <c r="L23">
-        <v>0.9662190489540433</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9833830972555269</v>
+        <v>1.013366391277378</v>
       </c>
       <c r="N23">
-        <v>0.9817521438905351</v>
+        <v>1.008589177662485</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9631442642799314</v>
+        <v>0.987734614748608</v>
       </c>
       <c r="D24">
-        <v>0.9901355461829503</v>
+        <v>1.010708950241853</v>
       </c>
       <c r="E24">
-        <v>0.9601705990806767</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.9804479450905567</v>
+        <v>1.008640092555558</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032610764649068</v>
+        <v>1.039205062642055</v>
       </c>
       <c r="J24">
-        <v>0.9921387682533932</v>
+        <v>1.015713125027959</v>
       </c>
       <c r="K24">
-        <v>1.004338135908547</v>
+        <v>1.024550578913536</v>
       </c>
       <c r="L24">
-        <v>0.9749352307923987</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>0.9948273429654203</v>
+        <v>1.022517158590611</v>
       </c>
       <c r="N24">
-        <v>0.9935477191042201</v>
+        <v>1.017155554169423</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9795280691560341</v>
+        <v>1.000531055759609</v>
       </c>
       <c r="D25">
-        <v>1.002378305269662</v>
+        <v>1.020724078348036</v>
       </c>
       <c r="E25">
-        <v>0.9713297256119044</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
-        <v>0.994465611671001</v>
+        <v>1.020224509603962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038369534920504</v>
+        <v>1.043076714867117</v>
       </c>
       <c r="J25">
-        <v>1.004764598049437</v>
+        <v>1.025040560967625</v>
       </c>
       <c r="K25">
-        <v>1.014939812962925</v>
+        <v>1.033008977777203</v>
       </c>
       <c r="L25">
-        <v>0.9843900368745778</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
-        <v>1.007150453762604</v>
+        <v>1.032516773893969</v>
       </c>
       <c r="N25">
-        <v>1.006191479026778</v>
+        <v>1.026496236137995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010179389981271</v>
+        <v>0.9998245904190938</v>
       </c>
       <c r="D2">
-        <v>1.02829121475915</v>
+        <v>1.016286519237037</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.028988571111668</v>
+        <v>0.9766705730786454</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045955296541508</v>
+        <v>1.040188568064596</v>
       </c>
       <c r="J2">
-        <v>1.032059842317397</v>
+        <v>1.022010549223606</v>
       </c>
       <c r="K2">
-        <v>1.039369991140225</v>
+        <v>1.027523525751218</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.040058297892848</v>
+        <v>0.9884647847883331</v>
       </c>
       <c r="N2">
-        <v>1.033525485672406</v>
+        <v>1.011124463011823</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016899024283444</v>
+        <v>1.004696461109089</v>
       </c>
       <c r="D3">
-        <v>1.033568305085606</v>
+        <v>1.019751443204107</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.035107424887102</v>
+        <v>0.9842378077154285</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047935410723017</v>
+        <v>1.041620944785281</v>
       </c>
       <c r="J3">
-        <v>1.036939371176825</v>
+        <v>1.025059909530866</v>
       </c>
       <c r="K3">
-        <v>1.043788960059342</v>
+        <v>1.030137687310652</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.045309972929848</v>
+        <v>0.9950764221740342</v>
       </c>
       <c r="N3">
-        <v>1.038411944022504</v>
+        <v>1.012153593159639</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021125692515706</v>
+        <v>1.007770771068028</v>
       </c>
       <c r="D4">
-        <v>1.036890146764269</v>
+        <v>1.021940555533281</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.038962590485018</v>
+        <v>0.9890022460547819</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049169106312344</v>
+        <v>1.042514317263592</v>
       </c>
       <c r="J4">
-        <v>1.040004015096745</v>
+        <v>1.026977767052202</v>
       </c>
       <c r="K4">
-        <v>1.046562829279838</v>
+        <v>1.031781197167554</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.048612457768421</v>
+        <v>0.9992352419314886</v>
       </c>
       <c r="N4">
-        <v>1.041480940088311</v>
+        <v>1.012800697244913</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022875004839508</v>
+        <v>1.009045311218362</v>
       </c>
       <c r="D5">
-        <v>1.038265491685406</v>
+        <v>1.022848690306214</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.040559601196059</v>
+        <v>0.9909753036259198</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049676814887393</v>
+        <v>1.042882141087907</v>
       </c>
       <c r="J5">
-        <v>1.041271237671255</v>
+        <v>1.027771326320099</v>
       </c>
       <c r="K5">
-        <v>1.047709432903182</v>
+        <v>1.032461067403926</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.049979000694359</v>
+        <v>1.000956514012808</v>
       </c>
       <c r="N5">
-        <v>1.042749962264229</v>
+        <v>1.013068409675396</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023167145797151</v>
+        <v>1.009258284769003</v>
       </c>
       <c r="D6">
-        <v>1.038495206740857</v>
+        <v>1.023000470570212</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.040826390585646</v>
+        <v>0.9913048817318989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049761432535111</v>
+        <v>1.042943453172316</v>
       </c>
       <c r="J6">
-        <v>1.041482798460228</v>
+        <v>1.027903837841784</v>
       </c>
       <c r="K6">
-        <v>1.047900833353642</v>
+        <v>1.032574584100917</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.050207199791551</v>
+        <v>1.001243975112943</v>
       </c>
       <c r="N6">
-        <v>1.042961823493789</v>
+        <v>1.013113110669362</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021149173404114</v>
+        <v>1.007787870848766</v>
       </c>
       <c r="D7">
-        <v>1.036908605984425</v>
+        <v>1.021952737246346</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.03898402138795</v>
+        <v>0.9890287255244602</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049175932741836</v>
+        <v>1.042519262260671</v>
       </c>
       <c r="J7">
-        <v>1.040021029578541</v>
+        <v>1.026988419893644</v>
       </c>
       <c r="K7">
-        <v>1.046578225808313</v>
+        <v>1.031790324534505</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.048630801945483</v>
+        <v>0.9992583462512103</v>
       </c>
       <c r="N7">
-        <v>1.041497978732622</v>
+        <v>1.012804291225174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012476383533252</v>
+        <v>1.001487736474275</v>
       </c>
       <c r="D8">
-        <v>1.030094506250099</v>
+        <v>1.017468778473947</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.031078800556675</v>
+        <v>0.9792563709216754</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04663461810998</v>
+        <v>1.040679741270726</v>
       </c>
       <c r="J8">
-        <v>1.033728760411388</v>
+        <v>1.023052870505516</v>
       </c>
       <c r="K8">
-        <v>1.0408816929696</v>
+        <v>1.028417210993437</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.041853623591661</v>
+        <v>0.9907248576782484</v>
       </c>
       <c r="N8">
-        <v>1.035196773821518</v>
+        <v>1.011476265902383</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9961911112095522</v>
+        <v>0.9897487475287119</v>
       </c>
       <c r="D9">
-        <v>1.017324558995125</v>
+        <v>1.009137637302088</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.016290612724335</v>
+        <v>0.9609404341037501</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041769920648201</v>
+        <v>1.037169052278151</v>
       </c>
       <c r="J9">
-        <v>1.021879091853198</v>
+        <v>1.015668770815109</v>
       </c>
       <c r="K9">
-        <v>1.030142674328309</v>
+        <v>1.022084182156413</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834082</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.029124801821705</v>
+        <v>0.9747006954221832</v>
       </c>
       <c r="N9">
-        <v>1.0233302773748</v>
+        <v>1.008983551891259</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9845463437393881</v>
+        <v>0.9814342605902918</v>
       </c>
       <c r="D10">
-        <v>1.008217818959986</v>
+        <v>1.003256952625025</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.005760775323981</v>
+        <v>0.9478613564227376</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03823231359749</v>
+        <v>1.03462775380056</v>
       </c>
       <c r="J10">
-        <v>1.013386799027893</v>
+        <v>1.010404351602852</v>
       </c>
       <c r="K10">
-        <v>1.022440266605177</v>
+        <v>1.017567649735279</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.020026790400763</v>
+        <v>0.9632404321228867</v>
       </c>
       <c r="N10">
-        <v>1.014825924519603</v>
+        <v>1.007206087640922</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9792877644960706</v>
+        <v>0.9777029417658678</v>
       </c>
       <c r="D11">
-        <v>1.00411299411105</v>
+        <v>1.000623565638339</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.001017879861158</v>
+        <v>0.9419578113634056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036621747370978</v>
+        <v>1.033474660117895</v>
       </c>
       <c r="J11">
-        <v>1.009548323693512</v>
+        <v>1.008033650453126</v>
       </c>
       <c r="K11">
-        <v>1.018957759993563</v>
+        <v>1.015533731997976</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.015920625954306</v>
+        <v>0.9580641147461992</v>
       </c>
       <c r="N11">
-        <v>1.010981998109968</v>
+        <v>1.006405664097727</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9772991326524724</v>
+        <v>0.9762958136611335</v>
       </c>
       <c r="D12">
-        <v>1.002561995371121</v>
+        <v>0.9996314233328897</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9992262536132136</v>
+        <v>0.9397255387347451</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036010814647</v>
+        <v>1.033037947520917</v>
       </c>
       <c r="J12">
-        <v>1.008096305673009</v>
+        <v>1.00713839623633</v>
       </c>
       <c r="K12">
-        <v>1.01764027564657</v>
+        <v>1.014765688098185</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.014368292410868</v>
+        <v>0.9561063767782431</v>
       </c>
       <c r="N12">
-        <v>1.009527918057327</v>
+        <v>1.006103407868128</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9777273508498293</v>
+        <v>0.9765986295650323</v>
       </c>
       <c r="D13">
-        <v>1.002895914192909</v>
+        <v>0.9998448898001516</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9996119574778807</v>
+        <v>0.9402062114704</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036142451331029</v>
+        <v>1.033132012451877</v>
       </c>
       <c r="J13">
-        <v>1.00840899066078</v>
+        <v>1.007331111953578</v>
       </c>
       <c r="K13">
-        <v>1.017923994358226</v>
+        <v>1.01493101817761</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.014702536633713</v>
+        <v>0.9565279532257098</v>
       </c>
       <c r="N13">
-        <v>1.009841047093646</v>
+        <v>1.006168472081419</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9791241227078327</v>
+        <v>0.9775870685380733</v>
       </c>
       <c r="D14">
-        <v>1.00398533674116</v>
+        <v>1.000541845760332</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.000870408069764</v>
+        <v>0.9417741162512008</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036571511848573</v>
+        <v>1.033438735717636</v>
       </c>
       <c r="J14">
-        <v>1.009428847140169</v>
+        <v>1.007959953733021</v>
       </c>
       <c r="K14">
-        <v>1.018849355544873</v>
+        <v>1.015470506349931</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.015792875755079</v>
+        <v>0.9579030198954026</v>
       </c>
       <c r="N14">
-        <v>1.010862351886215</v>
+        <v>1.006380782323354</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9799799427628376</v>
+        <v>0.978193229668133</v>
       </c>
       <c r="D15">
-        <v>1.004653018810258</v>
+        <v>1.000969381223401</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>1.001641743536845</v>
+        <v>0.9427348217995858</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036834160188809</v>
+        <v>1.033626589244576</v>
       </c>
       <c r="J15">
-        <v>1.010053673490208</v>
+        <v>1.008345429054622</v>
       </c>
       <c r="K15">
-        <v>1.019416273385801</v>
+        <v>1.015801213479677</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.016461009420853</v>
+        <v>0.9587455107766201</v>
       </c>
       <c r="N15">
-        <v>1.01148806556134</v>
+        <v>1.006510928454844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9848905441374856</v>
+        <v>0.9816790132227362</v>
       </c>
       <c r="D16">
-        <v>1.008486672458793</v>
+        <v>1.003429812875576</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.00607148716522</v>
+        <v>0.9482478180503929</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038337470718394</v>
+        <v>1.034703130355362</v>
       </c>
       <c r="J16">
-        <v>1.01363798221294</v>
+        <v>1.010559685689018</v>
       </c>
       <c r="K16">
-        <v>1.022668136944353</v>
+        <v>1.017700919343702</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.020295619340736</v>
+        <v>0.9635792216867475</v>
       </c>
       <c r="N16">
-        <v>1.015077464413584</v>
+        <v>1.007258534260603</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9879110038768755</v>
+        <v>0.983829475790343</v>
       </c>
       <c r="D17">
-        <v>1.010846821442334</v>
+        <v>1.004949266264354</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.008799470434049</v>
+        <v>0.9516394272176778</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039258792362297</v>
+        <v>1.035363981593829</v>
       </c>
       <c r="J17">
-        <v>1.015841804235095</v>
+        <v>1.011923566559001</v>
       </c>
       <c r="K17">
-        <v>1.024667302429367</v>
+        <v>1.018871069862797</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.022654952325104</v>
+        <v>0.9665520747646742</v>
       </c>
       <c r="N17">
-        <v>1.017284416115792</v>
+        <v>1.007719034091958</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9896521258338814</v>
+        <v>0.985071261830282</v>
       </c>
       <c r="D18">
-        <v>1.012208017278195</v>
+        <v>1.005827208832491</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.010373133262285</v>
+        <v>0.9535947643146352</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039788648002567</v>
+        <v>1.035744396104216</v>
       </c>
       <c r="J18">
-        <v>1.017111845072183</v>
+        <v>1.01271036935215</v>
       </c>
       <c r="K18">
-        <v>1.025819299954655</v>
+        <v>1.019546109477439</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.024015183339237</v>
+        <v>0.968265658905896</v>
       </c>
       <c r="N18">
-        <v>1.018556260556545</v>
+        <v>1.007984690414636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9902423804092179</v>
+        <v>0.9854925931164505</v>
       </c>
       <c r="D19">
-        <v>1.012669588552142</v>
+        <v>1.006125178012468</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.010906806269722</v>
+        <v>0.9542576891703798</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039968061534591</v>
+        <v>1.035873265155248</v>
       </c>
       <c r="J19">
-        <v>1.017542339442276</v>
+        <v>1.012977196559737</v>
       </c>
       <c r="K19">
-        <v>1.026209763950777</v>
+        <v>1.019775033217598</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.024476344637204</v>
+        <v>0.9688465632688377</v>
       </c>
       <c r="N19">
-        <v>1.018987366278022</v>
+        <v>1.008074781932981</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9875890938080393</v>
+        <v>0.9836000588589188</v>
       </c>
       <c r="D20">
-        <v>1.010595210545501</v>
+        <v>1.004787111082288</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.008508612309337</v>
+        <v>0.9512779343824316</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039160728646605</v>
+        <v>1.035293604077419</v>
       </c>
       <c r="J20">
-        <v>1.015606962828471</v>
+        <v>1.011778144297385</v>
       </c>
       <c r="K20">
-        <v>1.024454279749778</v>
+        <v>1.01874630397877</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.022403480005945</v>
+        <v>0.9662352487149667</v>
       </c>
       <c r="N20">
-        <v>1.017049241207435</v>
+        <v>1.007669933684257</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9787138090748791</v>
+        <v>0.9772965942067586</v>
       </c>
       <c r="D21">
-        <v>1.003665271877941</v>
+        <v>1.000337003475803</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148893</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>1.000500671477527</v>
+        <v>0.9413135248603497</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036445522161102</v>
+        <v>1.033348649469274</v>
       </c>
       <c r="J21">
-        <v>1.009129266450129</v>
+        <v>1.007775188820815</v>
       </c>
       <c r="K21">
-        <v>1.018577535695576</v>
+        <v>1.01531199403485</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981063</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.015472564688827</v>
+        <v>0.9574990887570102</v>
       </c>
       <c r="N21">
-        <v>1.010562345757233</v>
+        <v>1.006318401458212</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9729272942019109</v>
+        <v>0.9732101494941746</v>
       </c>
       <c r="D22">
-        <v>0.9991548957989415</v>
+        <v>0.9974576048085644</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9952913734488682</v>
+        <v>0.9348183826034313</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034664399395599</v>
+        <v>1.032076885687176</v>
       </c>
       <c r="J22">
-        <v>1.004903502508596</v>
+        <v>1.005172931241314</v>
       </c>
       <c r="K22">
-        <v>1.014743112979361</v>
+        <v>1.013079595854346</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.010956689833115</v>
+        <v>0.9518019869921401</v>
       </c>
       <c r="N22">
-        <v>1.006330580746201</v>
+        <v>1.00543985367171</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9760154365461267</v>
+        <v>0.9753886572820215</v>
       </c>
       <c r="D23">
-        <v>1.001561193959363</v>
+        <v>0.9989920789761184</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9980703100357809</v>
+        <v>0.938284622708778</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035615933284984</v>
+        <v>1.03275588270122</v>
       </c>
       <c r="J23">
-        <v>1.007158896506706</v>
+        <v>1.006560889645067</v>
       </c>
       <c r="K23">
-        <v>1.01678969057033</v>
+        <v>1.014270254316441</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.013366391277378</v>
+        <v>0.9548425545770082</v>
       </c>
       <c r="N23">
-        <v>1.008589177662485</v>
+        <v>1.005908433562806</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.987734614748608</v>
+        <v>0.9837037611474849</v>
       </c>
       <c r="D24">
-        <v>1.010708950241853</v>
+        <v>1.00486040770085</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011822</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.008640092555558</v>
+        <v>0.95144134805095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039205062642055</v>
+        <v>1.035325420214245</v>
       </c>
       <c r="J24">
-        <v>1.015713125027959</v>
+        <v>1.011843881251458</v>
       </c>
       <c r="K24">
-        <v>1.024550578913536</v>
+        <v>1.018802703396474</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.022517158590611</v>
+        <v>0.96637847169309</v>
       </c>
       <c r="N24">
-        <v>1.017155554169423</v>
+        <v>1.007692129123637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000531055759609</v>
+        <v>0.9928649236389749</v>
       </c>
       <c r="D25">
-        <v>1.020724078348036</v>
+        <v>1.011346033272519</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.020224509603962</v>
+        <v>0.9658180967957594</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043076714867117</v>
+        <v>1.038110479713304</v>
       </c>
       <c r="J25">
-        <v>1.025040560967625</v>
+        <v>1.01763482082638</v>
       </c>
       <c r="K25">
-        <v>1.033008977777203</v>
+        <v>1.023770733427007</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.032516773893969</v>
+        <v>0.9789712801376932</v>
       </c>
       <c r="N25">
-        <v>1.026496236137995</v>
+        <v>1.009647328125459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9998245904190938</v>
+        <v>1.028417834686724</v>
       </c>
       <c r="D2">
-        <v>1.016286519237037</v>
+        <v>1.031885696139161</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9766705730786454</v>
+        <v>1.026968078667254</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040188568064596</v>
+        <v>1.03358128967705</v>
       </c>
       <c r="J2">
-        <v>1.022010549223606</v>
+        <v>1.033570265693573</v>
       </c>
       <c r="K2">
-        <v>1.027523525751218</v>
+        <v>1.034692521117107</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9884647847883331</v>
+        <v>1.029789178236294</v>
       </c>
       <c r="N2">
-        <v>1.011124463011823</v>
+        <v>1.015178337871</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004696461109089</v>
+        <v>1.02939674924391</v>
       </c>
       <c r="D3">
-        <v>1.019751443204107</v>
+        <v>1.032597889562139</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9842378077154285</v>
+        <v>1.028580580264547</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041620944785281</v>
+        <v>1.033809814566775</v>
       </c>
       <c r="J3">
-        <v>1.025059909530866</v>
+        <v>1.034189629816018</v>
       </c>
       <c r="K3">
-        <v>1.030137687310652</v>
+        <v>1.035213630079863</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9950764221740342</v>
+        <v>1.031207129397451</v>
       </c>
       <c r="N3">
-        <v>1.012153593159639</v>
+        <v>1.015385868337456</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007770771068028</v>
+        <v>1.030029705008401</v>
       </c>
       <c r="D4">
-        <v>1.021940555533281</v>
+        <v>1.033058353155536</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9890022460547819</v>
+        <v>1.029623448226028</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042514317263592</v>
+        <v>1.03395630332032</v>
       </c>
       <c r="J4">
-        <v>1.026977767052202</v>
+        <v>1.034589349338294</v>
       </c>
       <c r="K4">
-        <v>1.031781197167554</v>
+        <v>1.035549779809773</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9992352419314886</v>
+        <v>1.032123646250682</v>
       </c>
       <c r="N4">
-        <v>1.012800697244913</v>
+        <v>1.015519740192953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009045311218362</v>
+        <v>1.03029568876282</v>
       </c>
       <c r="D5">
-        <v>1.022848690306214</v>
+        <v>1.033251842822806</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9909753036259198</v>
+        <v>1.030061750039104</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042882141087907</v>
+        <v>1.034017556545188</v>
       </c>
       <c r="J5">
-        <v>1.027771326320099</v>
+        <v>1.034757140690339</v>
       </c>
       <c r="K5">
-        <v>1.032461067403926</v>
+        <v>1.035690847972759</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.000956514012808</v>
+        <v>1.032508718104115</v>
       </c>
       <c r="N5">
-        <v>1.013068409675396</v>
+        <v>1.015575920937035</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009258284769003</v>
+        <v>1.030340342135719</v>
       </c>
       <c r="D6">
-        <v>1.023000470570212</v>
+        <v>1.033284325360049</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9913048817318989</v>
+        <v>1.030135336004473</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042943453172316</v>
+        <v>1.034027821848717</v>
       </c>
       <c r="J6">
-        <v>1.027903837841784</v>
+        <v>1.034785298915146</v>
       </c>
       <c r="K6">
-        <v>1.032574584100917</v>
+        <v>1.035714519337901</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.001243975112943</v>
+        <v>1.032573359934501</v>
       </c>
       <c r="N6">
-        <v>1.013113110669362</v>
+        <v>1.015585348132004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007787870848766</v>
+        <v>1.030033259530606</v>
       </c>
       <c r="D7">
-        <v>1.021952737246346</v>
+        <v>1.033060938924425</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9890287255244602</v>
+        <v>1.029629305299127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042519262260671</v>
+        <v>1.033957123087836</v>
       </c>
       <c r="J7">
-        <v>1.026988419893644</v>
+        <v>1.034591592358848</v>
       </c>
       <c r="K7">
-        <v>1.031790324534505</v>
+        <v>1.035551665748084</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9992583462512103</v>
+        <v>1.032128792503456</v>
       </c>
       <c r="N7">
-        <v>1.012804291225174</v>
+        <v>1.015520491271521</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001487736474275</v>
+        <v>1.028748760860455</v>
       </c>
       <c r="D8">
-        <v>1.017468778473947</v>
+        <v>1.032126462579505</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9792563709216754</v>
+        <v>1.027513144531192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040679741270726</v>
+        <v>1.033658807057193</v>
       </c>
       <c r="J8">
-        <v>1.023052870505516</v>
+        <v>1.033779800662919</v>
       </c>
       <c r="K8">
-        <v>1.028417210993437</v>
+        <v>1.03486884846677</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9907248576782484</v>
+        <v>1.030268590407175</v>
       </c>
       <c r="N8">
-        <v>1.011476265902383</v>
+        <v>1.015248559645626</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9897487475287119</v>
+        <v>1.026481682416131</v>
       </c>
       <c r="D9">
-        <v>1.009137637302088</v>
+        <v>1.030476931819875</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9609404341037501</v>
+        <v>1.02377985510899</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037169052278151</v>
+        <v>1.033122539585371</v>
       </c>
       <c r="J9">
-        <v>1.015668770815109</v>
+        <v>1.032341240155077</v>
       </c>
       <c r="K9">
-        <v>1.022084182156413</v>
+        <v>1.033657632449482</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9747006954221832</v>
+        <v>1.026982818756607</v>
       </c>
       <c r="N9">
-        <v>1.008983551891259</v>
+        <v>1.01476620029354</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9814342605902918</v>
+        <v>1.024967787736831</v>
       </c>
       <c r="D10">
-        <v>1.003256952625025</v>
+        <v>1.029375307484748</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9478613564227376</v>
+        <v>1.021287658611161</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03462775380056</v>
+        <v>1.032757886624472</v>
       </c>
       <c r="J10">
-        <v>1.010404351602852</v>
+        <v>1.031376716880724</v>
       </c>
       <c r="K10">
-        <v>1.017567649735279</v>
+        <v>1.032844743491522</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9632404321228867</v>
+        <v>1.02478665956159</v>
       </c>
       <c r="N10">
-        <v>1.007206087640922</v>
+        <v>1.014442475709074</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9777029417658678</v>
+        <v>1.024311642971531</v>
       </c>
       <c r="D11">
-        <v>1.000623565638339</v>
+        <v>1.028897828963703</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9419578113634056</v>
+        <v>1.020207625516931</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033474660117895</v>
+        <v>1.032598289855339</v>
       </c>
       <c r="J11">
-        <v>1.008033650453126</v>
+        <v>1.030957755172423</v>
       </c>
       <c r="K11">
-        <v>1.015533731997976</v>
+        <v>1.032491462691158</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9580641147461992</v>
+        <v>1.023834278628502</v>
       </c>
       <c r="N11">
-        <v>1.006405664097727</v>
+        <v>1.014301785872651</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9762958136611335</v>
+        <v>1.02406782714936</v>
       </c>
       <c r="D12">
-        <v>0.9996314233328897</v>
+        <v>1.028720401470667</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9397255387347451</v>
+        <v>1.019806310510694</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033037947520917</v>
+        <v>1.032538752735177</v>
       </c>
       <c r="J12">
-        <v>1.00713839623633</v>
+        <v>1.03080193518326</v>
       </c>
       <c r="K12">
-        <v>1.014765688098185</v>
+        <v>1.032360043263364</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9561063767782431</v>
+        <v>1.023480300136319</v>
       </c>
       <c r="N12">
-        <v>1.006103407868128</v>
+        <v>1.014249449728647</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9765986295650323</v>
+        <v>1.024120130769373</v>
       </c>
       <c r="D13">
-        <v>0.9998448898001516</v>
+        <v>1.028758463476774</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9402062114704</v>
+        <v>1.019892400526162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033132012451877</v>
+        <v>1.032551535230728</v>
       </c>
       <c r="J13">
-        <v>1.007331111953578</v>
+        <v>1.030835368121308</v>
       </c>
       <c r="K13">
-        <v>1.01493101817761</v>
+        <v>1.032388242022054</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9565279532257098</v>
+        <v>1.023556239875292</v>
       </c>
       <c r="N13">
-        <v>1.006168472081419</v>
+        <v>1.014260679529133</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9775870685380733</v>
+        <v>1.024291491015129</v>
       </c>
       <c r="D14">
-        <v>1.000541845760332</v>
+        <v>1.028883164196686</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9417741162512008</v>
+        <v>1.020174455649751</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033438735717636</v>
+        <v>1.032593373718596</v>
       </c>
       <c r="J14">
-        <v>1.007959953733021</v>
+        <v>1.030944879108727</v>
       </c>
       <c r="K14">
-        <v>1.015470506349931</v>
+        <v>1.032480603506674</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9579030198954026</v>
+        <v>1.023805023221618</v>
       </c>
       <c r="N14">
-        <v>1.006380782323354</v>
+        <v>1.014297461336999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.978193229668133</v>
+        <v>1.024397059157516</v>
       </c>
       <c r="D15">
-        <v>1.000969381223401</v>
+        <v>1.028959987043477</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9427348217995858</v>
+        <v>1.020348219978563</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033626589244576</v>
+        <v>1.032619117886511</v>
       </c>
       <c r="J15">
-        <v>1.008345429054622</v>
+        <v>1.031012326044804</v>
       </c>
       <c r="K15">
-        <v>1.015801213479677</v>
+        <v>1.032537484576829</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9587455107766201</v>
+        <v>1.023958277249037</v>
       </c>
       <c r="N15">
-        <v>1.006510928454844</v>
+        <v>1.014320113520844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9816790132227362</v>
+        <v>1.025011320744527</v>
       </c>
       <c r="D16">
-        <v>1.003429812875576</v>
+        <v>1.0294069862684</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9482478180503929</v>
+        <v>1.021359317293613</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034703130355362</v>
+        <v>1.032768442691097</v>
       </c>
       <c r="J16">
-        <v>1.010559685689018</v>
+        <v>1.03140449415081</v>
       </c>
       <c r="K16">
-        <v>1.017700919343702</v>
+        <v>1.032868162239355</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9635792216867475</v>
+        <v>1.024849835229295</v>
       </c>
       <c r="N16">
-        <v>1.007258534260603</v>
+        <v>1.014451801954441</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.983829475790343</v>
+        <v>1.025396464171664</v>
       </c>
       <c r="D17">
-        <v>1.004949266264354</v>
+        <v>1.029687251512605</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9516394272176778</v>
+        <v>1.0219933064717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035363981593829</v>
+        <v>1.032861654859109</v>
       </c>
       <c r="J17">
-        <v>1.011923566559001</v>
+        <v>1.031650137515711</v>
       </c>
       <c r="K17">
-        <v>1.018871069862797</v>
+        <v>1.033075240515559</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9665520747646742</v>
+        <v>1.025408698318744</v>
       </c>
       <c r="N17">
-        <v>1.007719034091958</v>
+        <v>1.014534268545484</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.985071261830282</v>
+        <v>1.02562105225589</v>
       </c>
       <c r="D18">
-        <v>1.005827208832491</v>
+        <v>1.029850680369281</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9535947643146352</v>
+        <v>1.022363015768254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035744396104216</v>
+        <v>1.032915859978669</v>
       </c>
       <c r="J18">
-        <v>1.01271036935215</v>
+        <v>1.031793290162017</v>
       </c>
       <c r="K18">
-        <v>1.019546109477439</v>
+        <v>1.033195900917472</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.968265658905896</v>
+        <v>1.02573453625107</v>
       </c>
       <c r="N18">
-        <v>1.007984690414636</v>
+        <v>1.014582320248063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9854925931164505</v>
+        <v>1.025697620932742</v>
       </c>
       <c r="D19">
-        <v>1.006125178012468</v>
+        <v>1.029906397745451</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9542576891703798</v>
+        <v>1.022489062765149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035873265155248</v>
+        <v>1.032934314725833</v>
       </c>
       <c r="J19">
-        <v>1.012977196559737</v>
+        <v>1.031842080012376</v>
       </c>
       <c r="K19">
-        <v>1.019775033217598</v>
+        <v>1.033237021840927</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9688465632688377</v>
+        <v>1.025845615464869</v>
       </c>
       <c r="N19">
-        <v>1.008074781932981</v>
+        <v>1.014598696222179</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9836000588589188</v>
+        <v>1.025355148098368</v>
       </c>
       <c r="D20">
-        <v>1.004787111082288</v>
+        <v>1.029657186373927</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9512779343824316</v>
+        <v>1.021925294371766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035293604077419</v>
+        <v>1.032851671037853</v>
       </c>
       <c r="J20">
-        <v>1.011778144297385</v>
+        <v>1.031623795448693</v>
       </c>
       <c r="K20">
-        <v>1.01874630397877</v>
+        <v>1.03305303589548</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9662352487149667</v>
+        <v>1.025348751865707</v>
       </c>
       <c r="N20">
-        <v>1.007669933684257</v>
+        <v>1.014525425799937</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9772965942067586</v>
+        <v>1.024241032313255</v>
       </c>
       <c r="D21">
-        <v>1.000337003475803</v>
+        <v>1.028846444898088</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9413135248603497</v>
+        <v>1.020091401448182</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033348649469274</v>
+        <v>1.032581060390759</v>
       </c>
       <c r="J21">
-        <v>1.007775188820815</v>
+        <v>1.030912636353706</v>
       </c>
       <c r="K21">
-        <v>1.01531199403485</v>
+        <v>1.032453410746071</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9574990887570102</v>
+        <v>1.023731768906641</v>
       </c>
       <c r="N21">
-        <v>1.006318401458212</v>
+        <v>1.014286632158041</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9732101494941746</v>
+        <v>1.023539996319677</v>
       </c>
       <c r="D22">
-        <v>0.9974576048085644</v>
+        <v>1.028336290230541</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9348183826034313</v>
+        <v>1.018937530954149</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032076885687176</v>
+        <v>1.032409436693155</v>
       </c>
       <c r="J22">
-        <v>1.005172931241314</v>
+        <v>1.03046435073721</v>
       </c>
       <c r="K22">
-        <v>1.013079595854346</v>
+        <v>1.032075272832816</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9518019869921401</v>
+        <v>1.022713820709474</v>
       </c>
       <c r="N22">
-        <v>1.00543985367171</v>
+        <v>1.01413604356069</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9753886572820215</v>
+        <v>1.023911681147356</v>
       </c>
       <c r="D23">
-        <v>0.9989920789761184</v>
+        <v>1.028606771812583</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.938284622708778</v>
+        <v>1.019549300846208</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03275588270122</v>
+        <v>1.032500558096374</v>
       </c>
       <c r="J23">
-        <v>1.006560889645067</v>
+        <v>1.030702104968981</v>
       </c>
       <c r="K23">
-        <v>1.014270254316441</v>
+        <v>1.032275838229682</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9548425545770082</v>
+        <v>1.023253578648305</v>
       </c>
       <c r="N23">
-        <v>1.005908433562806</v>
+        <v>1.014215916142429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9837037611474849</v>
+        <v>1.025373817237039</v>
       </c>
       <c r="D24">
-        <v>1.00486040770085</v>
+        <v>1.029670771655148</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.95144134805095</v>
+        <v>1.021956026375627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035325420214245</v>
+        <v>1.032856182803388</v>
       </c>
       <c r="J24">
-        <v>1.011843881251458</v>
+        <v>1.031635698686872</v>
       </c>
       <c r="K24">
-        <v>1.018802703396474</v>
+        <v>1.033063069593025</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.96637847169309</v>
+        <v>1.025375839510528</v>
       </c>
       <c r="N24">
-        <v>1.007692129123637</v>
+        <v>1.014529421609368</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9928649236389749</v>
+        <v>1.02706821359582</v>
       </c>
       <c r="D25">
-        <v>1.011346033272519</v>
+        <v>1.030903715604053</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9658180967957594</v>
+        <v>1.024745557416192</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038110479713304</v>
+        <v>1.03326243503634</v>
       </c>
       <c r="J25">
-        <v>1.01763482082638</v>
+        <v>1.032714105188843</v>
       </c>
       <c r="K25">
-        <v>1.023770733427007</v>
+        <v>1.033971712443208</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9789712801376932</v>
+        <v>1.027833237803553</v>
       </c>
       <c r="N25">
-        <v>1.009647328125459</v>
+        <v>1.014891280035216</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028417834686724</v>
+        <v>0.999824590419092</v>
       </c>
       <c r="D2">
-        <v>1.031885696139161</v>
+        <v>1.016286519237035</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.026968078667254</v>
+        <v>0.9766705730786442</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03358128967705</v>
+        <v>1.040188568064595</v>
       </c>
       <c r="J2">
-        <v>1.033570265693573</v>
+        <v>1.022010549223605</v>
       </c>
       <c r="K2">
-        <v>1.034692521117107</v>
+        <v>1.027523525751217</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.029789178236294</v>
+        <v>0.9884647847883319</v>
       </c>
       <c r="N2">
-        <v>1.015178337871</v>
+        <v>1.011124463011823</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02939674924391</v>
+        <v>1.00469646110909</v>
       </c>
       <c r="D3">
-        <v>1.032597889562139</v>
+        <v>1.019751443204107</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.028580580264547</v>
+        <v>0.9842378077154291</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033809814566775</v>
+        <v>1.041620944785282</v>
       </c>
       <c r="J3">
-        <v>1.034189629816018</v>
+        <v>1.025059909530867</v>
       </c>
       <c r="K3">
-        <v>1.035213630079863</v>
+        <v>1.030137687310652</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.031207129397451</v>
+        <v>0.9950764221740349</v>
       </c>
       <c r="N3">
-        <v>1.015385868337456</v>
+        <v>1.012153593159639</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030029705008401</v>
+        <v>1.007770771068028</v>
       </c>
       <c r="D4">
-        <v>1.033058353155536</v>
+        <v>1.021940555533282</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.029623448226028</v>
+        <v>0.9890022460547823</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03395630332032</v>
+        <v>1.042514317263592</v>
       </c>
       <c r="J4">
-        <v>1.034589349338294</v>
+        <v>1.026977767052203</v>
       </c>
       <c r="K4">
-        <v>1.035549779809773</v>
+        <v>1.031781197167554</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.032123646250682</v>
+        <v>0.999235241931489</v>
       </c>
       <c r="N4">
-        <v>1.015519740192953</v>
+        <v>1.012800697244913</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03029568876282</v>
+        <v>1.009045311218362</v>
       </c>
       <c r="D5">
-        <v>1.033251842822806</v>
+        <v>1.022848690306214</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.030061750039104</v>
+        <v>0.9909753036259195</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034017556545188</v>
+        <v>1.042882141087907</v>
       </c>
       <c r="J5">
-        <v>1.034757140690339</v>
+        <v>1.027771326320099</v>
       </c>
       <c r="K5">
-        <v>1.035690847972759</v>
+        <v>1.032461067403925</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.032508718104115</v>
+        <v>1.000956514012808</v>
       </c>
       <c r="N5">
-        <v>1.015575920937035</v>
+        <v>1.013068409675396</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030340342135719</v>
+        <v>1.009258284769003</v>
       </c>
       <c r="D6">
-        <v>1.033284325360049</v>
+        <v>1.023000470570212</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.030135336004473</v>
+        <v>0.9913048817318992</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034027821848717</v>
+        <v>1.042943453172316</v>
       </c>
       <c r="J6">
-        <v>1.034785298915146</v>
+        <v>1.027903837841784</v>
       </c>
       <c r="K6">
-        <v>1.035714519337901</v>
+        <v>1.032574584100918</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.032573359934501</v>
+        <v>1.001243975112943</v>
       </c>
       <c r="N6">
-        <v>1.015585348132004</v>
+        <v>1.013113110669362</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030033259530606</v>
+        <v>1.007787870848766</v>
       </c>
       <c r="D7">
-        <v>1.033060938924425</v>
+        <v>1.021952737246346</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.029629305299127</v>
+        <v>0.9890287255244608</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033957123087836</v>
+        <v>1.042519262260671</v>
       </c>
       <c r="J7">
-        <v>1.034591592358848</v>
+        <v>1.026988419893645</v>
       </c>
       <c r="K7">
-        <v>1.035551665748084</v>
+        <v>1.031790324534505</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.032128792503456</v>
+        <v>0.9992583462512108</v>
       </c>
       <c r="N7">
-        <v>1.015520491271521</v>
+        <v>1.012804291225174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028748760860455</v>
+        <v>1.001487736474274</v>
       </c>
       <c r="D8">
-        <v>1.032126462579505</v>
+        <v>1.017468778473946</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.027513144531192</v>
+        <v>0.9792563709216738</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033658807057193</v>
+        <v>1.040679741270726</v>
       </c>
       <c r="J8">
-        <v>1.033779800662919</v>
+        <v>1.023052870505515</v>
       </c>
       <c r="K8">
-        <v>1.03486884846677</v>
+        <v>1.028417210993436</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.030268590407175</v>
+        <v>0.9907248576782469</v>
       </c>
       <c r="N8">
-        <v>1.015248559645626</v>
+        <v>1.011476265902383</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026481682416131</v>
+        <v>0.989748747528711</v>
       </c>
       <c r="D9">
-        <v>1.030476931819875</v>
+        <v>1.009137637302087</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.02377985510899</v>
+        <v>0.9609404341037497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033122539585371</v>
+        <v>1.037169052278151</v>
       </c>
       <c r="J9">
-        <v>1.032341240155077</v>
+        <v>1.015668770815108</v>
       </c>
       <c r="K9">
-        <v>1.033657632449482</v>
+        <v>1.022084182156412</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.026982818756607</v>
+        <v>0.9747006954221827</v>
       </c>
       <c r="N9">
-        <v>1.01476620029354</v>
+        <v>1.008983551891258</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024967787736831</v>
+        <v>0.9814342605902915</v>
       </c>
       <c r="D10">
-        <v>1.029375307484748</v>
+        <v>1.003256952625025</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.021287658611161</v>
+        <v>0.9478613564227374</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032757886624472</v>
+        <v>1.03462775380056</v>
       </c>
       <c r="J10">
-        <v>1.031376716880724</v>
+        <v>1.010404351602852</v>
       </c>
       <c r="K10">
-        <v>1.032844743491522</v>
+        <v>1.017567649735279</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.02478665956159</v>
+        <v>0.9632404321228867</v>
       </c>
       <c r="N10">
-        <v>1.014442475709074</v>
+        <v>1.007206087640922</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024311642971531</v>
+        <v>0.9777029417658682</v>
       </c>
       <c r="D11">
-        <v>1.028897828963703</v>
+        <v>1.00062356563834</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.020207625516931</v>
+        <v>0.9419578113634056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032598289855339</v>
+        <v>1.033474660117895</v>
       </c>
       <c r="J11">
-        <v>1.030957755172423</v>
+        <v>1.008033650453126</v>
       </c>
       <c r="K11">
-        <v>1.032491462691158</v>
+        <v>1.015533731997977</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.023834278628502</v>
+        <v>0.9580641147461995</v>
       </c>
       <c r="N11">
-        <v>1.014301785872651</v>
+        <v>1.006405664097728</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02406782714936</v>
+        <v>0.9762958136611337</v>
       </c>
       <c r="D12">
-        <v>1.028720401470667</v>
+        <v>0.9996314233328898</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.019806310510694</v>
+        <v>0.9397255387347458</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032538752735177</v>
+        <v>1.033037947520918</v>
       </c>
       <c r="J12">
-        <v>1.03080193518326</v>
+        <v>1.00713839623633</v>
       </c>
       <c r="K12">
-        <v>1.032360043263364</v>
+        <v>1.014765688098185</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.023480300136319</v>
+        <v>0.9561063767782439</v>
       </c>
       <c r="N12">
-        <v>1.014249449728647</v>
+        <v>1.006103407868128</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024120130769373</v>
+        <v>0.9765986295650327</v>
       </c>
       <c r="D13">
-        <v>1.028758463476774</v>
+        <v>0.9998448898001518</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.019892400526162</v>
+        <v>0.9402062114704005</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032551535230728</v>
+        <v>1.033132012451878</v>
       </c>
       <c r="J13">
-        <v>1.030835368121308</v>
+        <v>1.007331111953579</v>
       </c>
       <c r="K13">
-        <v>1.032388242022054</v>
+        <v>1.01493101817761</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.023556239875292</v>
+        <v>0.9565279532257106</v>
       </c>
       <c r="N13">
-        <v>1.014260679529133</v>
+        <v>1.006168472081419</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024291491015129</v>
+        <v>0.9775870685380733</v>
       </c>
       <c r="D14">
-        <v>1.028883164196686</v>
+        <v>1.000541845760331</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.020174455649751</v>
+        <v>0.9417741162512003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032593373718596</v>
+        <v>1.033438735717636</v>
       </c>
       <c r="J14">
-        <v>1.030944879108727</v>
+        <v>1.007959953733021</v>
       </c>
       <c r="K14">
-        <v>1.032480603506674</v>
+        <v>1.015470506349931</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.023805023221618</v>
+        <v>0.9579030198954021</v>
       </c>
       <c r="N14">
-        <v>1.014297461336999</v>
+        <v>1.006380782323354</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024397059157516</v>
+        <v>0.9781932296681339</v>
       </c>
       <c r="D15">
-        <v>1.028959987043477</v>
+        <v>1.000969381223402</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.020348219978563</v>
+        <v>0.942734821799587</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032619117886511</v>
+        <v>1.033626589244577</v>
       </c>
       <c r="J15">
-        <v>1.031012326044804</v>
+        <v>1.008345429054623</v>
       </c>
       <c r="K15">
-        <v>1.032537484576829</v>
+        <v>1.015801213479678</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.023958277249037</v>
+        <v>0.9587455107766214</v>
       </c>
       <c r="N15">
-        <v>1.014320113520844</v>
+        <v>1.006510928454844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025011320744527</v>
+        <v>0.9816790132227367</v>
       </c>
       <c r="D16">
-        <v>1.0294069862684</v>
+        <v>1.003429812875576</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.021359317293613</v>
+        <v>0.9482478180503932</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032768442691097</v>
+        <v>1.034703130355362</v>
       </c>
       <c r="J16">
-        <v>1.03140449415081</v>
+        <v>1.010559685689018</v>
       </c>
       <c r="K16">
-        <v>1.032868162239355</v>
+        <v>1.017700919343703</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.024849835229295</v>
+        <v>0.9635792216867478</v>
       </c>
       <c r="N16">
-        <v>1.014451801954441</v>
+        <v>1.007258534260603</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025396464171664</v>
+        <v>0.9838294757903422</v>
       </c>
       <c r="D17">
-        <v>1.029687251512605</v>
+        <v>1.004949266264353</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.0219933064717</v>
+        <v>0.9516394272176769</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032861654859109</v>
+        <v>1.035363981593828</v>
       </c>
       <c r="J17">
-        <v>1.031650137515711</v>
+        <v>1.011923566559</v>
       </c>
       <c r="K17">
-        <v>1.033075240515559</v>
+        <v>1.018871069862797</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.025408698318744</v>
+        <v>0.9665520747646734</v>
       </c>
       <c r="N17">
-        <v>1.014534268545484</v>
+        <v>1.007719034091958</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02562105225589</v>
+        <v>0.9850712618302829</v>
       </c>
       <c r="D18">
-        <v>1.029850680369281</v>
+        <v>1.005827208832492</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.022363015768254</v>
+        <v>0.953594764314636</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032915859978669</v>
+        <v>1.035744396104216</v>
       </c>
       <c r="J18">
-        <v>1.031793290162017</v>
+        <v>1.01271036935215</v>
       </c>
       <c r="K18">
-        <v>1.033195900917472</v>
+        <v>1.01954610947744</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.02573453625107</v>
+        <v>0.9682656589058968</v>
       </c>
       <c r="N18">
-        <v>1.014582320248063</v>
+        <v>1.007984690414637</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025697620932742</v>
+        <v>0.9854925931164515</v>
       </c>
       <c r="D19">
-        <v>1.029906397745451</v>
+        <v>1.006125178012469</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.022489062765149</v>
+        <v>0.954257689170381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032934314725833</v>
+        <v>1.035873265155248</v>
       </c>
       <c r="J19">
-        <v>1.031842080012376</v>
+        <v>1.012977196559738</v>
       </c>
       <c r="K19">
-        <v>1.033237021840927</v>
+        <v>1.019775033217599</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.025845615464869</v>
+        <v>0.9688465632688389</v>
       </c>
       <c r="N19">
-        <v>1.014598696222179</v>
+        <v>1.008074781932981</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025355148098368</v>
+        <v>0.9836000588589187</v>
       </c>
       <c r="D20">
-        <v>1.029657186373927</v>
+        <v>1.004787111082288</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.021925294371766</v>
+        <v>0.9512779343824312</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032851671037853</v>
+        <v>1.035293604077419</v>
       </c>
       <c r="J20">
-        <v>1.031623795448693</v>
+        <v>1.011778144297385</v>
       </c>
       <c r="K20">
-        <v>1.03305303589548</v>
+        <v>1.01874630397877</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.025348751865707</v>
+        <v>0.9662352487149666</v>
       </c>
       <c r="N20">
-        <v>1.014525425799937</v>
+        <v>1.007669933684257</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024241032313255</v>
+        <v>0.977296594206759</v>
       </c>
       <c r="D21">
-        <v>1.028846444898088</v>
+        <v>1.000337003475803</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.020091401448182</v>
+        <v>0.9413135248603499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032581060390759</v>
+        <v>1.033348649469274</v>
       </c>
       <c r="J21">
-        <v>1.030912636353706</v>
+        <v>1.007775188820816</v>
       </c>
       <c r="K21">
-        <v>1.032453410746071</v>
+        <v>1.01531199403485</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.023731768906641</v>
+        <v>0.9574990887570101</v>
       </c>
       <c r="N21">
-        <v>1.014286632158041</v>
+        <v>1.006318401458213</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023539996319677</v>
+        <v>0.9732101494941748</v>
       </c>
       <c r="D22">
-        <v>1.028336290230541</v>
+        <v>0.9974576048085642</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.018937530954149</v>
+        <v>0.9348183826034314</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032409436693155</v>
+        <v>1.032076885687176</v>
       </c>
       <c r="J22">
-        <v>1.03046435073721</v>
+        <v>1.005172931241314</v>
       </c>
       <c r="K22">
-        <v>1.032075272832816</v>
+        <v>1.013079595854346</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.022713820709474</v>
+        <v>0.9518019869921401</v>
       </c>
       <c r="N22">
-        <v>1.01413604356069</v>
+        <v>1.00543985367171</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023911681147356</v>
+        <v>0.9753886572820224</v>
       </c>
       <c r="D23">
-        <v>1.028606771812583</v>
+        <v>0.9989920789761194</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.019549300846208</v>
+        <v>0.938284622708779</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032500558096374</v>
+        <v>1.032755882701221</v>
       </c>
       <c r="J23">
-        <v>1.030702104968981</v>
+        <v>1.006560889645068</v>
       </c>
       <c r="K23">
-        <v>1.032275838229682</v>
+        <v>1.014270254316442</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.023253578648305</v>
+        <v>0.9548425545770092</v>
       </c>
       <c r="N23">
-        <v>1.014215916142429</v>
+        <v>1.005908433562806</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025373817237039</v>
+        <v>0.9837037611474856</v>
       </c>
       <c r="D24">
-        <v>1.029670771655148</v>
+        <v>1.004860407700851</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.021956026375627</v>
+        <v>0.9514413480509505</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032856182803388</v>
+        <v>1.035325420214246</v>
       </c>
       <c r="J24">
-        <v>1.031635698686872</v>
+        <v>1.011843881251458</v>
       </c>
       <c r="K24">
-        <v>1.033063069593025</v>
+        <v>1.018802703396475</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.025375839510528</v>
+        <v>0.9663784716930905</v>
       </c>
       <c r="N24">
-        <v>1.014529421609368</v>
+        <v>1.007692129123637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02706821359582</v>
+        <v>0.9928649236389742</v>
       </c>
       <c r="D25">
-        <v>1.030903715604053</v>
+        <v>1.011346033272518</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.024745557416192</v>
+        <v>0.9658180967957587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03326243503634</v>
+        <v>1.038110479713304</v>
       </c>
       <c r="J25">
-        <v>1.032714105188843</v>
+        <v>1.017634820826379</v>
       </c>
       <c r="K25">
-        <v>1.033971712443208</v>
+        <v>1.023770733427007</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.027833237803553</v>
+        <v>0.9789712801376924</v>
       </c>
       <c r="N25">
-        <v>1.014891280035216</v>
+        <v>1.009647328125459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.999824590419092</v>
+        <v>1.010841552523178</v>
       </c>
       <c r="D2">
-        <v>1.016286519237035</v>
+        <v>1.030818459023371</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9766705730786442</v>
+        <v>1.034418355196306</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040188568064595</v>
+        <v>1.04728436158483</v>
       </c>
       <c r="J2">
-        <v>1.022010549223605</v>
+        <v>1.032702760358501</v>
       </c>
       <c r="K2">
-        <v>1.027523525751217</v>
+        <v>1.041864512167809</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9884647847883319</v>
+        <v>1.045418141297518</v>
       </c>
       <c r="N2">
-        <v>1.011124463011823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014839705207055</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044517791817733</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040672118659667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00469646110909</v>
+        <v>1.013843550971645</v>
       </c>
       <c r="D3">
-        <v>1.019751443204107</v>
+        <v>1.032783649274299</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9842378077154291</v>
+        <v>1.036615982671753</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041620944785282</v>
+        <v>1.047839310117245</v>
       </c>
       <c r="J3">
-        <v>1.025059909530867</v>
+        <v>1.033963811416745</v>
       </c>
       <c r="K3">
-        <v>1.030137687310652</v>
+        <v>1.043013561030354</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9950764221740349</v>
+        <v>1.046800847885881</v>
       </c>
       <c r="N3">
-        <v>1.012153593159639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015261572428517</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045612104501652</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041481931795376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007770771068028</v>
+        <v>1.015756552761228</v>
       </c>
       <c r="D4">
-        <v>1.021940555533282</v>
+        <v>1.03404016358191</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9890022460547823</v>
+        <v>1.038023129594348</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042514317263592</v>
+        <v>1.0481858092532</v>
       </c>
       <c r="J4">
-        <v>1.026977767052203</v>
+        <v>1.034765615212653</v>
       </c>
       <c r="K4">
-        <v>1.031781197167554</v>
+        <v>1.043744404837666</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.999235241931489</v>
+        <v>1.047683325396071</v>
       </c>
       <c r="N4">
-        <v>1.012800697244913</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015529855608336</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046310521043105</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04199959014222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009045311218362</v>
+        <v>1.016556463553214</v>
       </c>
       <c r="D5">
-        <v>1.022848690306214</v>
+        <v>1.034568455141832</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9909753036259195</v>
+        <v>1.038613783307133</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042882141087907</v>
+        <v>1.048330317468043</v>
       </c>
       <c r="J5">
-        <v>1.027771326320099</v>
+        <v>1.035101874590467</v>
       </c>
       <c r="K5">
-        <v>1.032461067403925</v>
+        <v>1.044052227023939</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.000956514012808</v>
+        <v>1.048053990050649</v>
       </c>
       <c r="N5">
-        <v>1.013068409675396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01564257351858</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046603874866444</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042224393547853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009258284769003</v>
+        <v>1.016693511909994</v>
       </c>
       <c r="D6">
-        <v>1.023000470570212</v>
+        <v>1.034661331530057</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9913048817318992</v>
+        <v>1.038715886883566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042943453172316</v>
+        <v>1.048356628935708</v>
       </c>
       <c r="J6">
-        <v>1.027903837841784</v>
+        <v>1.035161205379808</v>
       </c>
       <c r="K6">
-        <v>1.032574584100918</v>
+        <v>1.044108071014541</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.001243975112943</v>
+        <v>1.048119158326476</v>
       </c>
       <c r="N6">
-        <v>1.013113110669362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015662697947405</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046655450753604</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042272597961104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007787870848766</v>
+        <v>1.015775705571811</v>
       </c>
       <c r="D7">
-        <v>1.021952737246346</v>
+        <v>1.034058980676562</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9890287255244608</v>
+        <v>1.038039439582941</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042519262260671</v>
+        <v>1.048193716504217</v>
       </c>
       <c r="J7">
-        <v>1.026988419893645</v>
+        <v>1.034778351994642</v>
       </c>
       <c r="K7">
-        <v>1.031790324534505</v>
+        <v>1.043760143375519</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9992583462512108</v>
+        <v>1.047696601040323</v>
       </c>
       <c r="N7">
-        <v>1.012804291225174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015534763773103</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046321027741541</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042030769418449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001487736474274</v>
+        <v>1.011872821364124</v>
       </c>
       <c r="D8">
-        <v>1.017468778473946</v>
+        <v>1.031500296704922</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9792563709216738</v>
+        <v>1.035174591519374</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040679741270726</v>
+        <v>1.047481935569883</v>
       </c>
       <c r="J8">
-        <v>1.023052870505515</v>
+        <v>1.033142135928477</v>
       </c>
       <c r="K8">
-        <v>1.028417210993436</v>
+        <v>1.042269834338974</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9907248576782469</v>
+        <v>1.045898281983413</v>
       </c>
       <c r="N8">
-        <v>1.011476265902383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014987511031487</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044897788776725</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040981551016509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.989748747528711</v>
+        <v>1.004748293547072</v>
       </c>
       <c r="D9">
-        <v>1.009137637302087</v>
+        <v>1.0268541558686</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9609404341037497</v>
+        <v>1.029995709132617</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037169052278151</v>
+        <v>1.046120426601275</v>
       </c>
       <c r="J9">
-        <v>1.015668770815108</v>
+        <v>1.030134484398608</v>
       </c>
       <c r="K9">
-        <v>1.022084182156412</v>
+        <v>1.039526065971786</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9747006954221827</v>
+        <v>1.042620175765234</v>
       </c>
       <c r="N9">
-        <v>1.008983551891258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013980920307725</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042303398589367</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039038377434627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9814342605902915</v>
+        <v>0.999876315954189</v>
       </c>
       <c r="D10">
-        <v>1.003256952625025</v>
+        <v>1.023727038010633</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9478613564227374</v>
+        <v>1.026573015988572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03462775380056</v>
+        <v>1.045174070352049</v>
       </c>
       <c r="J10">
-        <v>1.010404351602852</v>
+        <v>1.028094841970118</v>
       </c>
       <c r="K10">
-        <v>1.017567649735279</v>
+        <v>1.037680712816983</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9632404321228867</v>
+        <v>1.040478507959506</v>
       </c>
       <c r="N10">
-        <v>1.007206087640922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013301780895121</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040659716947404</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037750369498103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9777029417658682</v>
+        <v>0.9980809398209086</v>
       </c>
       <c r="D11">
-        <v>1.00062356563834</v>
+        <v>1.022773246582225</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9419578113634056</v>
+        <v>1.025959748942258</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033474660117895</v>
+        <v>1.044971281863734</v>
       </c>
       <c r="J11">
-        <v>1.008033650453126</v>
+        <v>1.027533772439101</v>
       </c>
       <c r="K11">
-        <v>1.015533731997977</v>
+        <v>1.037278102948449</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9580641147461995</v>
+        <v>1.040408163551928</v>
       </c>
       <c r="N11">
-        <v>1.006405664097728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013140561880908</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041038969721146</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037498446870418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9762958136611337</v>
+        <v>0.9975295156344867</v>
       </c>
       <c r="D12">
-        <v>0.9996314233328898</v>
+        <v>1.022557176953205</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9397255387347458</v>
+        <v>1.026042509823053</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033037947520918</v>
+        <v>1.044969094435907</v>
       </c>
       <c r="J12">
-        <v>1.00713839623633</v>
+        <v>1.027438800060066</v>
       </c>
       <c r="K12">
-        <v>1.014765688098185</v>
+        <v>1.037264611697152</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9561063767782439</v>
+        <v>1.040687224423803</v>
       </c>
       <c r="N12">
-        <v>1.006103407868128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013128745693867</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041585145245257</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037488908180848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9765986295650327</v>
+        <v>0.9979095944742248</v>
       </c>
       <c r="D13">
-        <v>0.9998448898001518</v>
+        <v>1.022910043810277</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9402062114704005</v>
+        <v>1.026689313782354</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033132012451878</v>
+        <v>1.045133139233832</v>
       </c>
       <c r="J13">
-        <v>1.007331111953579</v>
+        <v>1.02770974253388</v>
       </c>
       <c r="K13">
-        <v>1.01493101817761</v>
+        <v>1.037568496910865</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9565279532257106</v>
+        <v>1.041280069971746</v>
       </c>
       <c r="N13">
-        <v>1.006168472081419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013236574858912</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042329825226401</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037701279695636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9775870685380733</v>
+        <v>0.9985982080645478</v>
       </c>
       <c r="D14">
-        <v>1.000541845760331</v>
+        <v>1.023415471349929</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9417741162512003</v>
+        <v>1.027397058371063</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033438735717636</v>
+        <v>1.045323209190491</v>
       </c>
       <c r="J14">
-        <v>1.007959953733021</v>
+        <v>1.028065157309872</v>
       </c>
       <c r="K14">
-        <v>1.015470506349931</v>
+        <v>1.037925323734714</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9579030198954021</v>
+        <v>1.041836479398721</v>
       </c>
       <c r="N14">
-        <v>1.006380782323354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013366310444116</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042942557193807</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037954985749113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9781932296681339</v>
+        <v>0.9989736018728846</v>
       </c>
       <c r="D15">
-        <v>1.000969381223402</v>
+        <v>1.023670793588577</v>
       </c>
       <c r="E15">
-        <v>0.933278105071747</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>0.942734821799587</v>
+        <v>1.02770857251312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033626589244577</v>
+        <v>1.045410088420281</v>
       </c>
       <c r="J15">
-        <v>1.008345429054623</v>
+        <v>1.028237794870918</v>
       </c>
       <c r="K15">
-        <v>1.015801213479678</v>
+        <v>1.038090177983944</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>0.9587455107766214</v>
+        <v>1.042057069045392</v>
       </c>
       <c r="N15">
-        <v>1.006510928454844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01342639515042</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043154362965434</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038077392134495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9816790132227367</v>
+        <v>1.000960924888108</v>
       </c>
       <c r="D16">
-        <v>1.003429812875576</v>
+        <v>1.024931695105501</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9482478180503932</v>
+        <v>1.029066680891327</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034703130355362</v>
+        <v>1.045794190531719</v>
       </c>
       <c r="J16">
-        <v>1.010559685689018</v>
+        <v>1.029059806035727</v>
       </c>
       <c r="K16">
-        <v>1.017700919343703</v>
+        <v>1.038829532432943</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9635792216867478</v>
+        <v>1.042895040107388</v>
       </c>
       <c r="N16">
-        <v>1.007258534260603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01369716939286</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04377806310081</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03860329700763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9838294757903422</v>
+        <v>1.002127413745945</v>
       </c>
       <c r="D17">
-        <v>1.004949266264353</v>
+        <v>1.025636127392658</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9516394272176769</v>
+        <v>1.029733985357357</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035363981593828</v>
+        <v>1.045987494283721</v>
       </c>
       <c r="J17">
-        <v>1.011923566559</v>
+        <v>1.029504083349601</v>
       </c>
       <c r="K17">
-        <v>1.018871069862797</v>
+        <v>1.039209112813754</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9665520747646734</v>
+        <v>1.043240009873356</v>
       </c>
       <c r="N17">
-        <v>1.007719034091958</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013836806532625</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043921992940252</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03887425454372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9850712618302829</v>
+        <v>1.00268406364097</v>
       </c>
       <c r="D18">
-        <v>1.005827208832492</v>
+        <v>1.025902428219302</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.953594764314636</v>
+        <v>1.029817092915096</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035744396104216</v>
+        <v>1.046023001377309</v>
       </c>
       <c r="J18">
-        <v>1.01271036935215</v>
+        <v>1.029646052375915</v>
       </c>
       <c r="K18">
-        <v>1.01954610947744</v>
+        <v>1.039288544738406</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9682656589058968</v>
+        <v>1.043140255046523</v>
       </c>
       <c r="N18">
-        <v>1.007984690414637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013869287358951</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043606036010137</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038918819989868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9854925931164515</v>
+        <v>1.002693317874079</v>
       </c>
       <c r="D19">
-        <v>1.006125178012469</v>
+        <v>1.025781154310581</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.954257689170381</v>
+        <v>1.029369776044423</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035873265155248</v>
+        <v>1.045922114640593</v>
       </c>
       <c r="J19">
-        <v>1.012977196559738</v>
+        <v>1.029520924980531</v>
       </c>
       <c r="K19">
-        <v>1.019775033217599</v>
+        <v>1.039106991286648</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816593</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9688465632688389</v>
+        <v>1.042638168642411</v>
       </c>
       <c r="N19">
-        <v>1.008074781932981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013808890232426</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042884414201326</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038796830236795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9836000588589187</v>
+        <v>1.001158785292808</v>
       </c>
       <c r="D20">
-        <v>1.004787111082288</v>
+        <v>1.02456476568978</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9512779343824312</v>
+        <v>1.027480987636594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035293604077419</v>
+        <v>1.045437395109792</v>
       </c>
       <c r="J20">
-        <v>1.011778144297385</v>
+        <v>1.028645110676015</v>
       </c>
       <c r="K20">
-        <v>1.01874630397877</v>
+        <v>1.038189001292474</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9662352487149666</v>
+        <v>1.041057236347906</v>
       </c>
       <c r="N20">
-        <v>1.007669933684257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013486964871833</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041107196722431</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038151686336028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.977296594206759</v>
+        <v>0.9974429945897904</v>
       </c>
       <c r="D21">
-        <v>1.000337003475803</v>
+        <v>1.022148940343716</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9413135248603499</v>
+        <v>1.02475856773884</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033348649469274</v>
+        <v>1.044672242607445</v>
       </c>
       <c r="J21">
-        <v>1.007775188820816</v>
+        <v>1.027048013534024</v>
       </c>
       <c r="K21">
-        <v>1.01531199403485</v>
+        <v>1.036722502715397</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9574990887570101</v>
+        <v>1.039285587720249</v>
       </c>
       <c r="N21">
-        <v>1.006318401458213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012950390645891</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039664297495522</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037118032746208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9732101494941748</v>
+        <v>0.9950809332758208</v>
       </c>
       <c r="D22">
-        <v>0.9974576048085642</v>
+        <v>1.020624753851227</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9348183826034314</v>
+        <v>1.023074708929361</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032076885687176</v>
+        <v>1.044183962597785</v>
       </c>
       <c r="J22">
-        <v>1.005172931241314</v>
+        <v>1.026038557716824</v>
       </c>
       <c r="K22">
-        <v>1.013079595854346</v>
+        <v>1.03579841151444</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9518019869921401</v>
+        <v>1.038202503901593</v>
       </c>
       <c r="N22">
-        <v>1.00543985367171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012611998990893</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03880710776459</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036451196476682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9753886572820224</v>
+        <v>0.996329029556469</v>
       </c>
       <c r="D23">
-        <v>0.9989920789761194</v>
+        <v>1.021424127328973</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.938284622708779</v>
+        <v>1.023961632731837</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032755882701221</v>
+        <v>1.044438821707892</v>
       </c>
       <c r="J23">
-        <v>1.006560889645068</v>
+        <v>1.026567907615527</v>
       </c>
       <c r="K23">
-        <v>1.014270254316442</v>
+        <v>1.036279519188001</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9548425545770092</v>
+        <v>1.038770716884428</v>
       </c>
       <c r="N23">
-        <v>1.005908433562806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012788763605567</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039256811161305</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036781753977724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9837037611474856</v>
+        <v>1.001173303612762</v>
       </c>
       <c r="D24">
-        <v>1.004860407700851</v>
+        <v>1.024547091716125</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9514413480509505</v>
+        <v>1.027424889531666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035325420214246</v>
+        <v>1.045419582014865</v>
       </c>
       <c r="J24">
-        <v>1.011843881251458</v>
+        <v>1.02862626286325</v>
       </c>
       <c r="K24">
-        <v>1.018802703396475</v>
+        <v>1.038156422938282</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9663784716930905</v>
+        <v>1.040986922367138</v>
       </c>
       <c r="N24">
-        <v>1.007692129123637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01347735519286</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041010790101434</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038101330471903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9928649236389742</v>
+        <v>1.006632411972917</v>
       </c>
       <c r="D25">
-        <v>1.011346033272518</v>
+        <v>1.028088181916919</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9658180967957587</v>
+        <v>1.031362165935087</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038110479713304</v>
+        <v>1.0464935822017</v>
       </c>
       <c r="J25">
-        <v>1.017634820826379</v>
+        <v>1.03093861219039</v>
       </c>
       <c r="K25">
-        <v>1.023770733427007</v>
+        <v>1.040265569078376</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9789712801376924</v>
+        <v>1.043492378901153</v>
       </c>
       <c r="N25">
-        <v>1.009647328125459</v>
+        <v>1.014251085115522</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042993686842422</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039589745241736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010841552523178</v>
+        <v>1.010316799594145</v>
       </c>
       <c r="D2">
-        <v>1.030818459023371</v>
+        <v>1.029778638933049</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.034418355196306</v>
+        <v>1.033708600595372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04728436158483</v>
+        <v>1.046842914269124</v>
       </c>
       <c r="J2">
-        <v>1.032702760358501</v>
+        <v>1.032193255535612</v>
       </c>
       <c r="K2">
-        <v>1.041864512167809</v>
+        <v>1.040838131528874</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.045418141297518</v>
+        <v>1.044717476813635</v>
       </c>
       <c r="N2">
-        <v>1.014839705207055</v>
+        <v>1.015765216919948</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044517791817733</v>
+        <v>1.043963265715069</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040672118659667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039955132989278</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02291999778011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013843550971645</v>
+        <v>1.013230607980413</v>
       </c>
       <c r="D3">
-        <v>1.032783649274299</v>
+        <v>1.0316268923693</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.036615982671753</v>
+        <v>1.035821833472469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047839310117245</v>
+        <v>1.047339698589626</v>
       </c>
       <c r="J3">
-        <v>1.033963811416745</v>
+        <v>1.033366978211343</v>
       </c>
       <c r="K3">
-        <v>1.043013561030354</v>
+        <v>1.041870482491628</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.046800847885881</v>
+        <v>1.046015999503184</v>
       </c>
       <c r="N3">
-        <v>1.015261572428517</v>
+        <v>1.016077045415654</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045612104501652</v>
+        <v>1.044990953731067</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041481931795376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040682157895281</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023098147984692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015756552761228</v>
+        <v>1.015087900339966</v>
       </c>
       <c r="D4">
-        <v>1.03404016358191</v>
+        <v>1.032809196440662</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.038023129594348</v>
+        <v>1.037175505537361</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.0481858092532</v>
+        <v>1.04764925545612</v>
       </c>
       <c r="J4">
-        <v>1.034765615212653</v>
+        <v>1.034113375029927</v>
       </c>
       <c r="K4">
-        <v>1.043744404837666</v>
+        <v>1.042527134838455</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.047683325396071</v>
+        <v>1.04684503992747</v>
       </c>
       <c r="N4">
-        <v>1.015529855608336</v>
+        <v>1.016275407859335</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046310521043105</v>
+        <v>1.045647079292986</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04199959014222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041147440692826</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02320922379198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016556463553214</v>
+        <v>1.015864634047356</v>
       </c>
       <c r="D5">
-        <v>1.034568455141832</v>
+        <v>1.033306580430243</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.038613783307133</v>
+        <v>1.037743899916677</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048330317468043</v>
+        <v>1.047778359869604</v>
       </c>
       <c r="J5">
-        <v>1.035101874590467</v>
+        <v>1.034426530158241</v>
       </c>
       <c r="K5">
-        <v>1.044052227023939</v>
+        <v>1.042804027370651</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.048053990050649</v>
+        <v>1.047193439522741</v>
       </c>
       <c r="N5">
-        <v>1.01564257351858</v>
+        <v>1.016358800230023</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046603874866444</v>
+        <v>1.045922812210743</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042224393547853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041351085264264</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023255979071366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016693511909994</v>
+        <v>1.015997723592712</v>
       </c>
       <c r="D6">
-        <v>1.034661331530057</v>
+        <v>1.033394226810517</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.038715886883566</v>
+        <v>1.037842229670818</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048356628935708</v>
+        <v>1.047802050825751</v>
       </c>
       <c r="J6">
-        <v>1.035161205379808</v>
+        <v>1.034481913113812</v>
       </c>
       <c r="K6">
-        <v>1.044108071014541</v>
+        <v>1.042854636428799</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.048119158326476</v>
+        <v>1.04725483225071</v>
       </c>
       <c r="N6">
-        <v>1.015662697947405</v>
+        <v>1.016373735110267</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046655450753604</v>
+        <v>1.0459714000751</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042272597961104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04139645607053</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023265054630938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015775705571811</v>
+        <v>1.015113151454984</v>
       </c>
       <c r="D7">
-        <v>1.034058980676562</v>
+        <v>1.032832019867377</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.038039439582941</v>
+        <v>1.037195279464509</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048193716504217</v>
+        <v>1.047659899982998</v>
       </c>
       <c r="J7">
-        <v>1.034778351994642</v>
+        <v>1.034132053547338</v>
       </c>
       <c r="K7">
-        <v>1.043760143375519</v>
+        <v>1.042546829904779</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.047696601040323</v>
+        <v>1.046861737854668</v>
       </c>
       <c r="N7">
-        <v>1.015534763773103</v>
+        <v>1.016306586940995</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046321027741541</v>
+        <v>1.045660294489192</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042030769418449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041183414122312</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023214649890554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011872821364124</v>
+        <v>1.011338065272771</v>
       </c>
       <c r="D8">
-        <v>1.031500296704922</v>
+        <v>1.030434539542065</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.035174591519374</v>
+        <v>1.03444789638973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047481935569883</v>
+        <v>1.047029942636215</v>
       </c>
       <c r="J8">
-        <v>1.033142135928477</v>
+        <v>1.032622409707507</v>
       </c>
       <c r="K8">
-        <v>1.042269834338974</v>
+        <v>1.041217451785372</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.045898281983413</v>
+        <v>1.045180622231388</v>
       </c>
       <c r="N8">
-        <v>1.014987511031487</v>
+        <v>1.015957966369637</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044897788776725</v>
+        <v>1.044329812418111</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040981551016509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040248445589829</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022989531835228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004748293547072</v>
+        <v>1.004428795674305</v>
       </c>
       <c r="D9">
-        <v>1.0268541558686</v>
+        <v>1.026069659357128</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.029995709132617</v>
+        <v>1.029472818297729</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046120426601275</v>
+        <v>1.045808516204581</v>
       </c>
       <c r="J9">
-        <v>1.030134484398608</v>
+        <v>1.029826125265752</v>
       </c>
       <c r="K9">
-        <v>1.039526065971786</v>
+        <v>1.038753474634832</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.042620175765234</v>
+        <v>1.0421051560068</v>
       </c>
       <c r="N9">
-        <v>1.013980920307725</v>
+        <v>1.01522421737598</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042303398589367</v>
+        <v>1.041895795883547</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039038377434627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03850281502438</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022550404928484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.999876315954189</v>
+        <v>0.9997336087236424</v>
       </c>
       <c r="D10">
-        <v>1.023727038010633</v>
+        <v>1.023153714639639</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.026573015988572</v>
+        <v>1.026206241534298</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045174070352049</v>
+        <v>1.044970277413131</v>
       </c>
       <c r="J10">
-        <v>1.028094841970118</v>
+        <v>1.027957799852665</v>
       </c>
       <c r="K10">
-        <v>1.037680712816983</v>
+        <v>1.037117137782577</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.040478507959506</v>
+        <v>1.040117923698099</v>
       </c>
       <c r="N10">
-        <v>1.013301780895121</v>
+        <v>1.014846395314155</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040659716947404</v>
+        <v>1.04037435639051</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037750369498103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037364265719605</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022255658491296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9980809398209086</v>
+        <v>0.9980271126826856</v>
       </c>
       <c r="D11">
-        <v>1.022773246582225</v>
+        <v>1.022282523450537</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.025959748942258</v>
+        <v>1.025658014800386</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044971281863734</v>
+        <v>1.044812790619584</v>
       </c>
       <c r="J11">
-        <v>1.027533772439101</v>
+        <v>1.027482197018964</v>
       </c>
       <c r="K11">
-        <v>1.037278102948449</v>
+        <v>1.036796112462084</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.040408163551928</v>
+        <v>1.040111754462339</v>
       </c>
       <c r="N11">
-        <v>1.013140561880908</v>
+        <v>1.014965210096902</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041038969721146</v>
+        <v>1.040804513731749</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037498446870418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037173236308299</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02224245797447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9975295156344867</v>
+        <v>0.9974994642332978</v>
       </c>
       <c r="D12">
-        <v>1.022557176953205</v>
+        <v>1.022083948418082</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.026042509823053</v>
+        <v>1.02575562596906</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044969094435907</v>
+        <v>1.044820214711426</v>
       </c>
       <c r="J12">
-        <v>1.027438800060066</v>
+        <v>1.027410029542055</v>
       </c>
       <c r="K12">
-        <v>1.037264611697152</v>
+        <v>1.036799942015084</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.040687224423803</v>
+        <v>1.040405482263276</v>
       </c>
       <c r="N12">
-        <v>1.013128745693867</v>
+        <v>1.015060584538287</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041585145245257</v>
+        <v>1.0413623656334</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037488908180848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037175943854589</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022273950735875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9979095944742248</v>
+        <v>0.997845111587652</v>
       </c>
       <c r="D13">
-        <v>1.022910043810277</v>
+        <v>1.02239858699243</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.026689313782354</v>
+        <v>1.026373965986878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045133139233832</v>
+        <v>1.044962821057963</v>
       </c>
       <c r="J13">
-        <v>1.02770974253388</v>
+        <v>1.027647995208143</v>
       </c>
       <c r="K13">
-        <v>1.037568496910865</v>
+        <v>1.037066251638753</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.041280069971746</v>
+        <v>1.040970346154519</v>
       </c>
       <c r="N13">
-        <v>1.013236574858912</v>
+        <v>1.015113056941531</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042329825226401</v>
+        <v>1.042084981161488</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037701279695636</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037361502328366</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022346738347534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9985982080645478</v>
+        <v>0.9984838957284171</v>
       </c>
       <c r="D14">
-        <v>1.023415471349929</v>
+        <v>1.022852635946621</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.027397058371063</v>
+        <v>1.027042678338851</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045323209190491</v>
+        <v>1.045124298362894</v>
       </c>
       <c r="J14">
-        <v>1.028065157309872</v>
+        <v>1.027955627125275</v>
       </c>
       <c r="K14">
-        <v>1.037925323734714</v>
+        <v>1.037372501892511</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.041836479398721</v>
+        <v>1.041488339388103</v>
       </c>
       <c r="N14">
-        <v>1.013366310444116</v>
+        <v>1.015131634540127</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042942557193807</v>
+        <v>1.042667381237613</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037954985749113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037579583538522</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022416693660923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9989736018728846</v>
+        <v>0.9988348033900506</v>
       </c>
       <c r="D15">
-        <v>1.023670793588577</v>
+        <v>1.023083359039217</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.02770857251312</v>
+        <v>1.027335356208048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045410088420281</v>
+        <v>1.04519758370064</v>
       </c>
       <c r="J15">
-        <v>1.028237794870918</v>
+        <v>1.028104753536873</v>
       </c>
       <c r="K15">
-        <v>1.038090177983944</v>
+        <v>1.03751311699085</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.042057069045392</v>
+        <v>1.04169037470909</v>
       </c>
       <c r="N15">
-        <v>1.01342639515042</v>
+        <v>1.015131515024524</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043154362965434</v>
+        <v>1.042864528964156</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038077392134495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037685420968302</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022445403245102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000960924888108</v>
+        <v>1.000710074272851</v>
       </c>
       <c r="D16">
-        <v>1.024931695105501</v>
+        <v>1.024231890106059</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.029066680891327</v>
+        <v>1.028607218584956</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045794190531719</v>
+        <v>1.04552056041439</v>
       </c>
       <c r="J16">
-        <v>1.029059806035727</v>
+        <v>1.028818852758915</v>
       </c>
       <c r="K16">
-        <v>1.038829532432943</v>
+        <v>1.03814155753261</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.042895040107388</v>
+        <v>1.04244326236469</v>
       </c>
       <c r="N16">
-        <v>1.01369716939286</v>
+        <v>1.015113439878884</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04377806310081</v>
+        <v>1.043420969401226</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03860329700763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038133207156288</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022555444195801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002127413745945</v>
+        <v>1.00182398870971</v>
       </c>
       <c r="D17">
-        <v>1.025636127392658</v>
+        <v>1.024881953179583</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.029733985357357</v>
+        <v>1.029232993226392</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045987494283721</v>
+        <v>1.045685014151506</v>
       </c>
       <c r="J17">
-        <v>1.029504083349601</v>
+        <v>1.029212253722869</v>
       </c>
       <c r="K17">
-        <v>1.039209112813754</v>
+        <v>1.038467337202739</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.043240009873356</v>
+        <v>1.042747167432524</v>
       </c>
       <c r="N17">
-        <v>1.013836806532625</v>
+        <v>1.015118292719452</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043921992940252</v>
+        <v>1.043532402322948</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03887425454372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038366374356534</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022603626243582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00268406364097</v>
+        <v>1.002366309062028</v>
       </c>
       <c r="D18">
-        <v>1.025902428219302</v>
+        <v>1.025133968492433</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.029817092915096</v>
+        <v>1.029304871191938</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046023001377309</v>
+        <v>1.045713484191995</v>
       </c>
       <c r="J18">
-        <v>1.029646052375915</v>
+        <v>1.02934021719759</v>
       </c>
       <c r="K18">
-        <v>1.039288544738406</v>
+        <v>1.038532515617971</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.043140255046523</v>
+        <v>1.04263623579108</v>
       </c>
       <c r="N18">
-        <v>1.013869287358951</v>
+        <v>1.015101026820864</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043606036010137</v>
+        <v>1.043207527493535</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038918819989868</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038399728739791</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022594358744453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002693317874079</v>
+        <v>1.002390718816582</v>
       </c>
       <c r="D19">
-        <v>1.025781154310581</v>
+        <v>1.025031391478712</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.029369776044423</v>
+        <v>1.028870896268412</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045922114640593</v>
+        <v>1.045623088554918</v>
       </c>
       <c r="J19">
-        <v>1.029520924980531</v>
+        <v>1.02922960995063</v>
       </c>
       <c r="K19">
-        <v>1.039106991286648</v>
+        <v>1.038369295360911</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.042638168642411</v>
+        <v>1.042147243878534</v>
       </c>
       <c r="N19">
-        <v>1.013808890232426</v>
+        <v>1.015047096416722</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042884414201326</v>
+        <v>1.042496132780423</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038796830236795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038291326131191</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022535923503436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001158785292808</v>
+        <v>1.000950783879138</v>
       </c>
       <c r="D20">
-        <v>1.02456476568978</v>
+        <v>1.023923077168142</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.027480987636594</v>
+        <v>1.027062155520894</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045437395109792</v>
+        <v>1.04519651297248</v>
       </c>
       <c r="J20">
-        <v>1.028645110676015</v>
+        <v>1.02844510353837</v>
       </c>
       <c r="K20">
-        <v>1.038189001292474</v>
+        <v>1.037557919079336</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.041057236347906</v>
+        <v>1.040645274630759</v>
       </c>
       <c r="N20">
-        <v>1.013486964871833</v>
+        <v>1.014879133436647</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041107196722431</v>
+        <v>1.040781172920756</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038151686336028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037721951708525</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022338087005821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9974429945897904</v>
+        <v>0.9974646039975043</v>
       </c>
       <c r="D21">
-        <v>1.022148940343716</v>
+        <v>1.021736472948433</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.02475856773884</v>
+        <v>1.024516237664941</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044672242607445</v>
+        <v>1.044558516850292</v>
       </c>
       <c r="J21">
-        <v>1.027048013534024</v>
+        <v>1.027068712879392</v>
       </c>
       <c r="K21">
-        <v>1.036722502715397</v>
+        <v>1.036317419888441</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.039285587720249</v>
+        <v>1.039047566613176</v>
       </c>
       <c r="N21">
-        <v>1.012950390645891</v>
+        <v>1.014925910174206</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039664297495522</v>
+        <v>1.039475919504689</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037118032746208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036848412327039</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022109540211558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950809332758208</v>
+        <v>0.9952464855957229</v>
       </c>
       <c r="D22">
-        <v>1.020624753851227</v>
+        <v>1.020356008083992</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.023074708929361</v>
+        <v>1.022943159263376</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044183962597785</v>
+        <v>1.044149906372019</v>
       </c>
       <c r="J22">
-        <v>1.026038557716824</v>
+        <v>1.026196742285093</v>
       </c>
       <c r="K22">
-        <v>1.03579841151444</v>
+        <v>1.035534714123652</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.038202503901593</v>
+        <v>1.038073409536471</v>
       </c>
       <c r="N22">
-        <v>1.012611998990893</v>
+        <v>1.014949302658767</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03880710776459</v>
+        <v>1.038704937982133</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036451196476682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036280239677249</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021964391061122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.996329029556469</v>
+        <v>0.9964077705854305</v>
       </c>
       <c r="D23">
-        <v>1.021424127328973</v>
+        <v>1.021071769905771</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.023961632731837</v>
+        <v>1.023765061992398</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044438821707892</v>
+        <v>1.044357636386562</v>
       </c>
       <c r="J23">
-        <v>1.026567907615527</v>
+        <v>1.026643244570778</v>
       </c>
       <c r="K23">
-        <v>1.036279519188001</v>
+        <v>1.035933615742936</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.038770716884428</v>
+        <v>1.038577722750317</v>
       </c>
       <c r="N23">
-        <v>1.012788763605567</v>
+        <v>1.014893029595321</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039256811161305</v>
+        <v>1.039104068963739</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036781753977724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036551733363973</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02203644104422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001173303612762</v>
+        <v>1.000966470500487</v>
       </c>
       <c r="D24">
-        <v>1.024547091716125</v>
+        <v>1.023906906029663</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.027424889531666</v>
+        <v>1.027007120082243</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045419582014865</v>
+        <v>1.045179634305915</v>
       </c>
       <c r="J24">
-        <v>1.02862626286325</v>
+        <v>1.028427367624928</v>
       </c>
       <c r="K24">
-        <v>1.038156422938282</v>
+        <v>1.037526805621776</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.040986922367138</v>
+        <v>1.040575998070125</v>
       </c>
       <c r="N24">
-        <v>1.01347735519286</v>
+        <v>1.014868087463408</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041010790101434</v>
+        <v>1.040685571229014</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038101330471903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037669960998224</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022326366451938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006632411972917</v>
+        <v>1.006247351952716</v>
       </c>
       <c r="D25">
-        <v>1.028088181916919</v>
+        <v>1.027223576177696</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.031362165935087</v>
+        <v>1.030780390578484</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.0464935822017</v>
+        <v>1.046140782259919</v>
       </c>
       <c r="J25">
-        <v>1.03093861219039</v>
+        <v>1.030566281558746</v>
       </c>
       <c r="K25">
-        <v>1.040265569078376</v>
+        <v>1.039413484901001</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.043492378901153</v>
+        <v>1.04291895850378</v>
       </c>
       <c r="N25">
-        <v>1.014251085115522</v>
+        <v>1.015389040065136</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042993686842422</v>
+        <v>1.042539864465916</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039589745241736</v>
+        <v>1.03900078007084</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.02267158718386</v>
       </c>
     </row>
   </sheetData>
